--- a/BackTest/2020-01-24 BackTest EOS.xlsx
+++ b/BackTest/2020-01-24 BackTest EOS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -1012,7 +1012,7 @@
         <v>-11739.09075984</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>9320.22544016</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>9720.960740160001</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>9501.33324016</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>9028.706340160001</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>9031.085027120002</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>8876.512427120002</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>8797.749227120003</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>8795.027027120002</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>7262.220427120003</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7290.228727120003</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>8044.228727120003</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>7938.893227120003</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>7478.167627120003</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>9865.593127120002</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>9441.526027120002</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>9425.934027120002</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>9547.541809930002</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>6571.968909930001</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>6570.708909930001</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>6786.273809930001</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>6709.304609930001</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>7009.304609930001</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>7018.49730993</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>7018.49730993</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>7018.49730993</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>7074.57940993</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>9284.984409930001</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>9284.984409930001</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>8985.484409930001</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>167.2422099300003</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-1132.75779007</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-1063.50359007</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-1063.50359007</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-1456.175290069999</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-1456.175290069999</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-1391.600890069999</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-451.8636900699994</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>20.70800993000063</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>72.42820993000063</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>55.57030993000063</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-43.99589006999942</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-19.66709006999942</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-19.66709006999942</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5500,7 +5500,7 @@
         <v>4134.54860993</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>4989.57630993</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>5611.687009929999</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>5510.157609929999</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>5511.157609929999</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>4790.34260993</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>4791.638817319999</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>1191.453698119999</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>1189.453698119999</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>1252.462598119999</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>799.6893981199993</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7051,7 +7051,7 @@
         <v>899.6893981199993</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I202" t="inlineStr"/>
       <c r="J202" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>1762.421798119999</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -7117,7 +7117,7 @@
         <v>1937.751798119999</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I204" t="inlineStr"/>
       <c r="J204" t="inlineStr"/>
@@ -7150,7 +7150,7 @@
         <v>2276.363698119999</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I205" t="inlineStr"/>
       <c r="J205" t="inlineStr"/>
@@ -7183,7 +7183,7 @@
         <v>2305.242598119999</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I206" t="inlineStr"/>
       <c r="J206" t="inlineStr"/>
@@ -7216,7 +7216,7 @@
         <v>2305.242598119999</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I207" t="inlineStr"/>
       <c r="J207" t="inlineStr"/>
@@ -7975,7 +7975,7 @@
         <v>-4531.813701880001</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I230" t="inlineStr"/>
       <c r="J230" t="inlineStr"/>
@@ -8008,7 +8008,7 @@
         <v>-3671.314001880001</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I231" t="inlineStr"/>
       <c r="J231" t="inlineStr"/>
@@ -8041,7 +8041,7 @@
         <v>-3671.314001880001</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I232" t="inlineStr"/>
       <c r="J232" t="inlineStr"/>
@@ -8074,7 +8074,7 @@
         <v>-3971.314001880001</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I233" t="inlineStr"/>
       <c r="J233" t="inlineStr"/>
@@ -8107,7 +8107,7 @@
         <v>-4799.725201880001</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I234" t="inlineStr"/>
       <c r="J234" t="inlineStr"/>
@@ -8140,7 +8140,7 @@
         <v>-4498.04290188</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I235" t="inlineStr"/>
       <c r="J235" t="inlineStr"/>
@@ -8173,7 +8173,7 @@
         <v>-3723.04290188</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I236" t="inlineStr"/>
       <c r="J236" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-4023.04290188</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-4052.880901880001</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-4200.67500188</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-4200.67500188</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-4078.23700188</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-1682.09192837</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-1735.56332837</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-1126.34622837</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-1114.36312837</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-1036.35392837</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -9295,7 +9295,7 @@
         <v>4925.886071630001</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I270" t="inlineStr"/>
       <c r="J270" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>916.7092716300003</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>268.4187716300004</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9394,7 +9394,7 @@
         <v>3217.66187163</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I273" t="inlineStr"/>
       <c r="J273" t="inlineStr"/>
@@ -10219,7 +10219,7 @@
         <v>-13014.96952837</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
       <c r="J298" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-10115.16992837</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -10285,7 +10285,7 @@
         <v>-12062.18982837</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
       <c r="J300" t="inlineStr"/>
@@ -10318,7 +10318,7 @@
         <v>-12062.18982837</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
       <c r="J301" t="inlineStr"/>
@@ -10351,7 +10351,7 @@
         <v>-12062.18982837</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
       <c r="J302" t="inlineStr"/>
@@ -10384,7 +10384,7 @@
         <v>-13850.97612837</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
       <c r="J303" t="inlineStr"/>
@@ -10417,7 +10417,7 @@
         <v>-9625.585228369999</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
       <c r="J304" t="inlineStr"/>
@@ -10450,7 +10450,7 @@
         <v>-9861.118828369999</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
       <c r="J305" t="inlineStr"/>
@@ -10483,7 +10483,7 @@
         <v>-9741.102928369999</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
       <c r="J306" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-8338.043317830005</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-8268.505817830004</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-8568.505817830004</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-10714.56571783</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-17356.88073449001</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-17349.71743449</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-17459.07843449001</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-17480.41003449001</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-17451.16130692001</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-17450.84600692001</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-17899.69380692001</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-16962.36080692001</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-17831.73457055001</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-17735.59157055001</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-25431.86447055001</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-25380.96677055001</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-25143.42587055001</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-25167.66297055001</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-25855.75517055001</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-25551.25157055001</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H397" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H400" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-27204.40747055001</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-28699.86937055001</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H592" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H593" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H594" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-52386.27416568995</v>
       </c>
       <c r="H595" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-50328.65406568995</v>
       </c>
       <c r="H596" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H597" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H598" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H599" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H600" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H601" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-57852.53826568995</v>
       </c>
       <c r="H602" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H603" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H604" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-55048.68656568995</v>
       </c>
       <c r="H605" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-47453.21376568996</v>
       </c>
       <c r="H606" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-46924.78716568996</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-44143.16396568996</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-44373.82166568996</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-44109.27106568996</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-40803.98786568996</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-39758.57366568996</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-39758.45866568996</v>
       </c>
       <c r="H613" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-39958.45866568996</v>
       </c>
       <c r="H614" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-39691.61366568996</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-39735.89616568996</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-43917.77726568996</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-43604.18666568996</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-43496.00436568996</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-43961.21726568996</v>
       </c>
       <c r="H620" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-43247.43176568996</v>
       </c>
       <c r="H621" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-42963.45326568996</v>
       </c>
       <c r="H622" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-44131.18826568996</v>
       </c>
       <c r="H623" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-41884.83156568996</v>
       </c>
       <c r="H624" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-41636.10666568996</v>
       </c>
       <c r="H625" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-41047.86927606996</v>
       </c>
       <c r="H626" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-40782.86927606996</v>
       </c>
       <c r="H627" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-40309.59035995996</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-40854.71305995996</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H630" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-44236.84695995997</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-46838.54925995997</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-47762.43115995997</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-54896.10525995997</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-50683.40055995997</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-55359.00435995997</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-52184.60705995997</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-51795.64115995997</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-51408.62595995997</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-53104.79925995997</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-54663.48105995997</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-60174.64625995997</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-58029.81075995997</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-103432.42705996</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-103725.04745996</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-96132.27125995995</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-96236.40155995995</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-96407.98535995994</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-96287.40595995994</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-95004.03755995994</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-95821.44845995994</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-95758.71525995994</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-97227.38165995994</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-95998.30605995994</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-98591.76485995993</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-100244.8826599599</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-100116.6276599599</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-97377.77175995993</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-97791.83305995993</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-99031.51505995993</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-98954.51505995993</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-99045.84845995993</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-100406.3387599599</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-97190.55185995993</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H771" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H772" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-96717.58205995992</v>
       </c>
       <c r="H773" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-98728.08935995992</v>
       </c>
       <c r="H774" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H775" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H776" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-97479.07275995992</v>
       </c>
       <c r="H784" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27511,11 +27511,17 @@
         <v>-113125.3612747999</v>
       </c>
       <c r="H822" t="n">
-        <v>0</v>
-      </c>
-      <c r="I822" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I822" t="n">
+        <v>4062</v>
+      </c>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr"/>
+      <c r="K822" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27544,11 +27550,17 @@
         <v>-100209.6920747999</v>
       </c>
       <c r="H823" t="n">
-        <v>0</v>
-      </c>
-      <c r="I823" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I823" t="n">
+        <v>4043</v>
+      </c>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr"/>
+      <c r="K823" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27577,11 +27589,17 @@
         <v>-96653.29137479991</v>
       </c>
       <c r="H824" t="n">
-        <v>0</v>
-      </c>
-      <c r="I824" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I824" t="n">
+        <v>4076</v>
+      </c>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr"/>
+      <c r="K824" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27614,7 +27632,11 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr"/>
+      <c r="K825" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27647,7 +27669,11 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr"/>
+      <c r="K826" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27676,11 +27702,15 @@
         <v>-94237.99927479991</v>
       </c>
       <c r="H827" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr"/>
+      <c r="K827" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27709,11 +27739,15 @@
         <v>-94400.32997479991</v>
       </c>
       <c r="H828" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr"/>
+      <c r="K828" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27746,7 +27780,11 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr"/>
+      <c r="K829" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27775,11 +27813,15 @@
         <v>-94864.95167479992</v>
       </c>
       <c r="H830" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr"/>
+      <c r="K830" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27808,11 +27850,15 @@
         <v>-97398.12687479991</v>
       </c>
       <c r="H831" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr"/>
+      <c r="K831" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27845,7 +27891,11 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr"/>
+      <c r="K832" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27878,7 +27928,11 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr"/>
+      <c r="K833" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27911,7 +27965,11 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr"/>
+      <c r="K834" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -27944,7 +28002,11 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr"/>
+      <c r="K835" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -27973,14 +28035,16 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H836" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr"/>
-      <c r="L836" t="n">
-        <v>1</v>
-      </c>
+      <c r="K836" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L836" t="inlineStr"/>
       <c r="M836" t="inlineStr"/>
     </row>
     <row r="837">
@@ -28006,7 +28070,7 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H837" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28039,7 +28103,7 @@
         <v>-93466.44922264991</v>
       </c>
       <c r="H838" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28072,7 +28136,7 @@
         <v>-94332.92742264991</v>
       </c>
       <c r="H839" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28105,7 +28169,7 @@
         <v>-94091.85672264991</v>
       </c>
       <c r="H840" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28138,7 +28202,7 @@
         <v>-95184.92412264991</v>
       </c>
       <c r="H841" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28171,7 +28235,7 @@
         <v>-95723.15272264992</v>
       </c>
       <c r="H842" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28336,7 +28400,7 @@
         <v>-97903.78122264991</v>
       </c>
       <c r="H847" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28369,7 +28433,7 @@
         <v>-97891.8767226499</v>
       </c>
       <c r="H848" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28435,7 +28499,7 @@
         <v>-97563.4465226499</v>
       </c>
       <c r="H850" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28468,7 +28532,7 @@
         <v>-97922.67702264991</v>
       </c>
       <c r="H851" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28501,7 +28565,7 @@
         <v>-97924.6870226499</v>
       </c>
       <c r="H852" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28600,7 +28664,7 @@
         <v>-99645.59742264991</v>
       </c>
       <c r="H855" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28699,7 +28763,7 @@
         <v>-99644.56172264992</v>
       </c>
       <c r="H858" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28732,7 +28796,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H859" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28765,7 +28829,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H860" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28798,7 +28862,7 @@
         <v>-98980.07412264992</v>
       </c>
       <c r="H861" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28831,7 +28895,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H862" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28864,7 +28928,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H863" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28897,7 +28961,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H864" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28930,7 +28994,7 @@
         <v>-98092.96602264991</v>
       </c>
       <c r="H865" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -28963,7 +29027,7 @@
         <v>-99523.98032264991</v>
       </c>
       <c r="H866" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -28996,7 +29060,7 @@
         <v>-99102.82262264991</v>
       </c>
       <c r="H867" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29029,7 +29093,7 @@
         <v>-102084.5720226499</v>
       </c>
       <c r="H868" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29524,11 +29588,17 @@
         <v>-109335.1074226499</v>
       </c>
       <c r="H883" t="n">
-        <v>0</v>
-      </c>
-      <c r="I883" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I883" t="n">
+        <v>4065</v>
+      </c>
       <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr"/>
+      <c r="K883" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L883" t="n">
         <v>1</v>
       </c>
@@ -29557,11 +29627,17 @@
         <v>-98600.57712264991</v>
       </c>
       <c r="H884" t="n">
-        <v>0</v>
-      </c>
-      <c r="I884" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I884" t="n">
+        <v>4061</v>
+      </c>
       <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr"/>
+      <c r="K884" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L884" t="n">
         <v>1</v>
       </c>
@@ -29594,7 +29670,11 @@
       </c>
       <c r="I885" t="inlineStr"/>
       <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr"/>
+      <c r="K885" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L885" t="n">
         <v>1</v>
       </c>
@@ -29623,11 +29703,17 @@
         <v>-100896.9524226499</v>
       </c>
       <c r="H886" t="n">
-        <v>0</v>
-      </c>
-      <c r="I886" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I886" t="n">
+        <v>4067</v>
+      </c>
       <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr"/>
+      <c r="K886" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L886" t="n">
         <v>1</v>
       </c>
@@ -29656,11 +29742,17 @@
         <v>-100517.3108226499</v>
       </c>
       <c r="H887" t="n">
-        <v>0</v>
-      </c>
-      <c r="I887" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I887" t="n">
+        <v>4066</v>
+      </c>
       <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr"/>
+      <c r="K887" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L887" t="n">
         <v>1</v>
       </c>
@@ -29689,11 +29781,17 @@
         <v>-106017.1656226499</v>
       </c>
       <c r="H888" t="n">
-        <v>0</v>
-      </c>
-      <c r="I888" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I888" t="n">
+        <v>4078</v>
+      </c>
       <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr"/>
+      <c r="K888" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L888" t="n">
         <v>1</v>
       </c>
@@ -29726,7 +29824,11 @@
       </c>
       <c r="I889" t="inlineStr"/>
       <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr"/>
+      <c r="K889" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L889" t="n">
         <v>1</v>
       </c>
@@ -29755,11 +29857,17 @@
         <v>-105611.3870226499</v>
       </c>
       <c r="H890" t="n">
-        <v>0</v>
-      </c>
-      <c r="I890" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I890" t="n">
+        <v>4076</v>
+      </c>
       <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr"/>
+      <c r="K890" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L890" t="n">
         <v>1</v>
       </c>
@@ -29792,7 +29900,11 @@
       </c>
       <c r="I891" t="inlineStr"/>
       <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr"/>
+      <c r="K891" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L891" t="n">
         <v>1</v>
       </c>
@@ -29825,7 +29937,11 @@
       </c>
       <c r="I892" t="inlineStr"/>
       <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr"/>
+      <c r="K892" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L892" t="n">
         <v>1</v>
       </c>
@@ -29858,7 +29974,11 @@
       </c>
       <c r="I893" t="inlineStr"/>
       <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr"/>
+      <c r="K893" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L893" t="n">
         <v>1</v>
       </c>
@@ -29891,7 +30011,11 @@
       </c>
       <c r="I894" t="inlineStr"/>
       <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr"/>
+      <c r="K894" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L894" t="n">
         <v>1</v>
       </c>
@@ -29924,7 +30048,11 @@
       </c>
       <c r="I895" t="inlineStr"/>
       <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr"/>
+      <c r="K895" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L895" t="n">
         <v>1</v>
       </c>
@@ -29957,7 +30085,11 @@
       </c>
       <c r="I896" t="inlineStr"/>
       <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr"/>
+      <c r="K896" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L896" t="n">
         <v>1</v>
       </c>
@@ -29990,7 +30122,11 @@
       </c>
       <c r="I897" t="inlineStr"/>
       <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr"/>
+      <c r="K897" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L897" t="n">
         <v>1</v>
       </c>
@@ -30023,7 +30159,11 @@
       </c>
       <c r="I898" t="inlineStr"/>
       <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr"/>
+      <c r="K898" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L898" t="n">
         <v>1</v>
       </c>
@@ -30056,7 +30196,11 @@
       </c>
       <c r="I899" t="inlineStr"/>
       <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr"/>
+      <c r="K899" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L899" t="n">
         <v>1</v>
       </c>
@@ -30089,7 +30233,11 @@
       </c>
       <c r="I900" t="inlineStr"/>
       <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr"/>
+      <c r="K900" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L900" t="n">
         <v>1</v>
       </c>
@@ -30122,7 +30270,11 @@
       </c>
       <c r="I901" t="inlineStr"/>
       <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr"/>
+      <c r="K901" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L901" t="n">
         <v>1</v>
       </c>
@@ -30155,7 +30307,11 @@
       </c>
       <c r="I902" t="inlineStr"/>
       <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr"/>
+      <c r="K902" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L902" t="n">
         <v>1</v>
       </c>
@@ -30188,7 +30344,11 @@
       </c>
       <c r="I903" t="inlineStr"/>
       <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr"/>
+      <c r="K903" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L903" t="n">
         <v>1</v>
       </c>
@@ -30221,7 +30381,11 @@
       </c>
       <c r="I904" t="inlineStr"/>
       <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr"/>
+      <c r="K904" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L904" t="n">
         <v>1</v>
       </c>
@@ -30254,7 +30418,11 @@
       </c>
       <c r="I905" t="inlineStr"/>
       <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr"/>
+      <c r="K905" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L905" t="n">
         <v>1</v>
       </c>
@@ -30287,7 +30455,11 @@
       </c>
       <c r="I906" t="inlineStr"/>
       <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr"/>
+      <c r="K906" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L906" t="n">
         <v>1</v>
       </c>
@@ -30320,7 +30492,11 @@
       </c>
       <c r="I907" t="inlineStr"/>
       <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr"/>
+      <c r="K907" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L907" t="n">
         <v>1</v>
       </c>
@@ -30353,7 +30529,11 @@
       </c>
       <c r="I908" t="inlineStr"/>
       <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr"/>
+      <c r="K908" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L908" t="n">
         <v>1</v>
       </c>
@@ -30386,7 +30566,11 @@
       </c>
       <c r="I909" t="inlineStr"/>
       <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr"/>
+      <c r="K909" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L909" t="n">
         <v>1</v>
       </c>
@@ -30415,11 +30599,17 @@
         <v>-122437.0859613398</v>
       </c>
       <c r="H910" t="n">
-        <v>0</v>
-      </c>
-      <c r="I910" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I910" t="n">
+        <v>4056</v>
+      </c>
       <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr"/>
+      <c r="K910" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L910" t="n">
         <v>1</v>
       </c>
@@ -30448,11 +30638,17 @@
         <v>-122424.9609613398</v>
       </c>
       <c r="H911" t="n">
-        <v>0</v>
-      </c>
-      <c r="I911" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I911" t="n">
+        <v>4055</v>
+      </c>
       <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr"/>
+      <c r="K911" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L911" t="n">
         <v>1</v>
       </c>
@@ -30481,11 +30677,17 @@
         <v>-127752.1594613398</v>
       </c>
       <c r="H912" t="n">
-        <v>0</v>
-      </c>
-      <c r="I912" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I912" t="n">
+        <v>4064</v>
+      </c>
       <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr"/>
+      <c r="K912" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L912" t="n">
         <v>1</v>
       </c>
@@ -30518,7 +30720,11 @@
       </c>
       <c r="I913" t="inlineStr"/>
       <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr"/>
+      <c r="K913" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L913" t="n">
         <v>1</v>
       </c>
@@ -30547,11 +30753,17 @@
         <v>-134479.3502613399</v>
       </c>
       <c r="H914" t="n">
-        <v>0</v>
-      </c>
-      <c r="I914" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I914" t="n">
+        <v>4047</v>
+      </c>
       <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr"/>
+      <c r="K914" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L914" t="n">
         <v>1</v>
       </c>
@@ -30580,11 +30792,17 @@
         <v>-130675.1221613399</v>
       </c>
       <c r="H915" t="n">
-        <v>0</v>
-      </c>
-      <c r="I915" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I915" t="n">
+        <v>4045</v>
+      </c>
       <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr"/>
+      <c r="K915" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L915" t="n">
         <v>1</v>
       </c>
@@ -30618,10 +30836,12 @@
       <c r="I916" t="n">
         <v>4059</v>
       </c>
-      <c r="J916" t="n">
-        <v>4059</v>
-      </c>
-      <c r="K916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L916" t="n">
         <v>1</v>
       </c>
@@ -30655,12 +30875,10 @@
       <c r="I917" t="n">
         <v>4063</v>
       </c>
-      <c r="J917" t="n">
-        <v>4059</v>
-      </c>
+      <c r="J917" t="inlineStr"/>
       <c r="K917" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L917" t="n">
@@ -30691,15 +30909,15 @@
         <v>-130390.2682613399</v>
       </c>
       <c r="H918" t="n">
-        <v>0</v>
-      </c>
-      <c r="I918" t="inlineStr"/>
-      <c r="J918" t="n">
-        <v>4059</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I918" t="n">
+        <v>4055</v>
+      </c>
+      <c r="J918" t="inlineStr"/>
       <c r="K918" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L918" t="n">
@@ -30730,11 +30948,17 @@
         <v>-132651.2021613399</v>
       </c>
       <c r="H919" t="n">
-        <v>0</v>
-      </c>
-      <c r="I919" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I919" t="n">
+        <v>4065</v>
+      </c>
       <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr"/>
+      <c r="K919" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L919" t="n">
         <v>1</v>
       </c>
@@ -30767,7 +30991,11 @@
       </c>
       <c r="I920" t="inlineStr"/>
       <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr"/>
+      <c r="K920" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L920" t="n">
         <v>1</v>
       </c>
@@ -30804,7 +31032,7 @@
       <c r="J921" t="inlineStr"/>
       <c r="K921" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L921" t="n">
@@ -31186,11 +31414,9 @@
         <v>-120673.4387613399</v>
       </c>
       <c r="H931" t="n">
-        <v>1</v>
-      </c>
-      <c r="I931" t="n">
-        <v>4060</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I931" t="inlineStr"/>
       <c r="J931" t="inlineStr"/>
       <c r="K931" t="inlineStr">
         <is>
@@ -31225,11 +31451,9 @@
         <v>-120673.4387613399</v>
       </c>
       <c r="H932" t="n">
-        <v>1</v>
-      </c>
-      <c r="I932" t="n">
-        <v>4059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I932" t="inlineStr"/>
       <c r="J932" t="inlineStr"/>
       <c r="K932" t="inlineStr">
         <is>
@@ -31264,11 +31488,9 @@
         <v>-122193.9029613399</v>
       </c>
       <c r="H933" t="n">
-        <v>1</v>
-      </c>
-      <c r="I933" t="n">
-        <v>4059</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I933" t="inlineStr"/>
       <c r="J933" t="inlineStr"/>
       <c r="K933" t="inlineStr">
         <is>
@@ -31303,11 +31525,9 @@
         <v>-121724.5135613399</v>
       </c>
       <c r="H934" t="n">
-        <v>1</v>
-      </c>
-      <c r="I934" t="n">
-        <v>4053</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I934" t="inlineStr"/>
       <c r="J934" t="inlineStr"/>
       <c r="K934" t="inlineStr">
         <is>
@@ -31320,6 +31540,6 @@
       <c r="M934" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-24 BackTest EOS.xlsx
+++ b/BackTest/2020-01-24 BackTest EOS.xlsx
@@ -1342,7 +1342,7 @@
         <v>10355.56224016</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>10336.67334016</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>11651.63834016</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>10761.79774016</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>10023.26944016</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>6090.49814016</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>9638.075640159999</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>7320.225440159999</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>9320.22544016</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>10940.32284016</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>9720.960740160001</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>9501.33324016</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>9028.706340160001</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>9031.085027120002</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>8876.512427120002</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>8797.749227120003</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>8795.027027120002</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>7262.220427120003</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>7290.228727120003</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>8044.228727120003</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>7938.893227120003</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>7478.167627120003</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>9865.593127120002</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>9441.526027120002</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>9425.934027120002</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>9547.541809930002</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>9380.176809930002</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>13862.33100993</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>13969.40760993</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>12830.22630993</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>12597.29860993</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>12573.69500993</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>12543.72930993</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>12835.85630993</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>12835.85630993</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>12855.85630993</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>12855.85630993</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>12790.67940993</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>7790.679409930002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>8054.182609930002</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>-8338.043317830005</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>-8268.505817830004</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>-8568.505817830004</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>-10714.56571783</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>-17356.88073449001</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>-17349.71743449</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>-17459.07843449001</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>-17480.41003449001</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>-17470.34763449001</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>-17599.03943449001</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>-17451.16130692001</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>-17450.84600692001</v>
       </c>
       <c r="H377" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -12859,7 +12859,7 @@
         <v>-17899.69380692001</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I378" t="inlineStr"/>
       <c r="J378" t="inlineStr"/>
@@ -12892,7 +12892,7 @@
         <v>-16962.36080692001</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I379" t="inlineStr"/>
       <c r="J379" t="inlineStr"/>
@@ -12925,7 +12925,7 @@
         <v>-17831.73457055001</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I380" t="inlineStr"/>
       <c r="J380" t="inlineStr"/>
@@ -12958,7 +12958,7 @@
         <v>-17735.59157055001</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I381" t="inlineStr"/>
       <c r="J381" t="inlineStr"/>
@@ -12991,7 +12991,7 @@
         <v>-25431.86447055001</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
@@ -13024,7 +13024,7 @@
         <v>-25380.96677055001</v>
       </c>
       <c r="H383" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="inlineStr"/>
@@ -13057,7 +13057,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13090,7 +13090,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13123,7 +13123,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13156,7 +13156,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13189,7 +13189,7 @@
         <v>-25316.50737055001</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13222,7 +13222,7 @@
         <v>-25143.42587055001</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13255,7 +13255,7 @@
         <v>-25167.66297055001</v>
       </c>
       <c r="H390" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
       <c r="J390" t="inlineStr"/>
@@ -13288,7 +13288,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13321,7 +13321,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13354,7 +13354,7 @@
         <v>-25569.53877055001</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13387,7 +13387,7 @@
         <v>-25855.75517055001</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13420,7 +13420,7 @@
         <v>-25551.25157055001</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13453,7 +13453,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13486,7 +13486,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H397" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13519,7 +13519,7 @@
         <v>-25804.18557055001</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13552,7 +13552,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -13585,7 +13585,7 @@
         <v>-26847.95107055001</v>
       </c>
       <c r="H400" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="inlineStr"/>
@@ -13618,7 +13618,7 @@
         <v>-27204.40747055001</v>
       </c>
       <c r="H401" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="inlineStr"/>
@@ -13651,7 +13651,7 @@
         <v>-28699.86937055001</v>
       </c>
       <c r="H402" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -13684,7 +13684,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H403" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -13717,7 +13717,7 @@
         <v>-28399.86937055001</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
@@ -19921,7 +19921,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H592" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I592" t="inlineStr"/>
       <c r="J592" t="inlineStr"/>
@@ -19954,7 +19954,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H593" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I593" t="inlineStr"/>
       <c r="J593" t="inlineStr"/>
@@ -19987,7 +19987,7 @@
         <v>-54671.68826568995</v>
       </c>
       <c r="H594" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I594" t="inlineStr"/>
       <c r="J594" t="inlineStr"/>
@@ -20020,7 +20020,7 @@
         <v>-52386.27416568995</v>
       </c>
       <c r="H595" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I595" t="inlineStr"/>
       <c r="J595" t="inlineStr"/>
@@ -20053,7 +20053,7 @@
         <v>-50328.65406568995</v>
       </c>
       <c r="H596" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -20086,7 +20086,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H597" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -20119,7 +20119,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H598" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I598" t="inlineStr"/>
       <c r="J598" t="inlineStr"/>
@@ -20152,7 +20152,7 @@
         <v>-52440.09876568995</v>
       </c>
       <c r="H599" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I599" t="inlineStr"/>
       <c r="J599" t="inlineStr"/>
@@ -20185,7 +20185,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H600" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -20218,7 +20218,7 @@
         <v>-56173.04646568995</v>
       </c>
       <c r="H601" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -20251,7 +20251,7 @@
         <v>-57852.53826568995</v>
       </c>
       <c r="H602" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I602" t="inlineStr"/>
       <c r="J602" t="inlineStr"/>
@@ -20284,7 +20284,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H603" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I603" t="inlineStr"/>
       <c r="J603" t="inlineStr"/>
@@ -20317,7 +20317,7 @@
         <v>-55029.84846568995</v>
       </c>
       <c r="H604" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I604" t="inlineStr"/>
       <c r="J604" t="inlineStr"/>
@@ -20350,7 +20350,7 @@
         <v>-55048.68656568995</v>
       </c>
       <c r="H605" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I605" t="inlineStr"/>
       <c r="J605" t="inlineStr"/>
@@ -20383,7 +20383,7 @@
         <v>-47453.21376568996</v>
       </c>
       <c r="H606" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I606" t="inlineStr"/>
       <c r="J606" t="inlineStr"/>
@@ -20416,7 +20416,7 @@
         <v>-46924.78716568996</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -20449,7 +20449,7 @@
         <v>-44143.16396568996</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -20482,7 +20482,7 @@
         <v>-44373.82166568996</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -20515,7 +20515,7 @@
         <v>-44109.27106568996</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -20548,7 +20548,7 @@
         <v>-40803.98786568996</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -20581,7 +20581,7 @@
         <v>-39758.57366568996</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -20614,7 +20614,7 @@
         <v>-39758.45866568996</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -20647,7 +20647,7 @@
         <v>-39958.45866568996</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -20680,7 +20680,7 @@
         <v>-39691.61366568996</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -20713,7 +20713,7 @@
         <v>-39735.89616568996</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -20746,7 +20746,7 @@
         <v>-43917.77726568996</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -20779,7 +20779,7 @@
         <v>-43604.18666568996</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -20812,7 +20812,7 @@
         <v>-43496.00436568996</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -20845,7 +20845,7 @@
         <v>-43961.21726568996</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -20878,7 +20878,7 @@
         <v>-43247.43176568996</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -20911,7 +20911,7 @@
         <v>-42963.45326568996</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -20944,7 +20944,7 @@
         <v>-44131.18826568996</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -20977,7 +20977,7 @@
         <v>-41884.83156568996</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -21010,7 +21010,7 @@
         <v>-41636.10666568996</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -21043,7 +21043,7 @@
         <v>-41047.86927606996</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -21076,7 +21076,7 @@
         <v>-40782.86927606996</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -21109,7 +21109,7 @@
         <v>-40309.59035995996</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -21142,7 +21142,7 @@
         <v>-40854.71305995996</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -21175,7 +21175,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -21208,7 +21208,7 @@
         <v>-40734.39005995997</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -21241,7 +21241,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -21274,7 +21274,7 @@
         <v>-44235.63305995997</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -21307,7 +21307,7 @@
         <v>-44236.84695995997</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21340,7 +21340,7 @@
         <v>-46838.54925995997</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-47762.43115995997</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-46868.43915995997</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-54896.10525995997</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-50683.40055995997</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-55359.00435995997</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21604,7 +21604,7 @@
         <v>-52184.60705995997</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -21637,7 +21637,7 @@
         <v>-51795.64115995997</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-51408.62595995997</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -21703,7 +21703,7 @@
         <v>-53104.79925995997</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -21736,7 +21736,7 @@
         <v>-54663.48105995997</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -21769,7 +21769,7 @@
         <v>-60174.64625995997</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -21802,7 +21802,7 @@
         <v>-58029.81075995997</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -24508,7 +24508,7 @@
         <v>-103432.42705996</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -24607,7 +24607,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -24640,7 +24640,7 @@
         <v>-103375.04745996</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -24673,7 +24673,7 @@
         <v>-103725.04745996</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -24706,7 +24706,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -24739,7 +24739,7 @@
         <v>-100180.73245996</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -24772,7 +24772,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -24805,7 +24805,7 @@
         <v>-97041.59385995995</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -24838,7 +24838,7 @@
         <v>-96132.27125995995</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -24871,7 +24871,7 @@
         <v>-96236.40155995995</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -24904,7 +24904,7 @@
         <v>-96407.98535995994</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -24937,7 +24937,7 @@
         <v>-96287.40595995994</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -24970,7 +24970,7 @@
         <v>-95004.03755995994</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -25003,7 +25003,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -25036,7 +25036,7 @@
         <v>-94458.28655995993</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -25069,7 +25069,7 @@
         <v>-95821.44845995994</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -25102,7 +25102,7 @@
         <v>-95758.71525995994</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -25135,7 +25135,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -25168,7 +25168,7 @@
         <v>-95606.72365995994</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -25201,7 +25201,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -25234,7 +25234,7 @@
         <v>-96369.65855995993</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -25267,7 +25267,7 @@
         <v>-97227.38165995994</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -25300,7 +25300,7 @@
         <v>-95998.30605995994</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -25333,7 +25333,7 @@
         <v>-98591.76485995993</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -25366,7 +25366,7 @@
         <v>-100244.8826599599</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -25399,7 +25399,7 @@
         <v>-100116.6276599599</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -25432,7 +25432,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -25465,7 +25465,7 @@
         <v>-97465.27235995993</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -25498,7 +25498,7 @@
         <v>-97377.77175995993</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -25531,7 +25531,7 @@
         <v>-97791.83305995993</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -25564,7 +25564,7 @@
         <v>-99031.51505995993</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -25597,7 +25597,7 @@
         <v>-98954.51505995993</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -25630,7 +25630,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -25663,7 +25663,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -25696,7 +25696,7 @@
         <v>-99409.74145995993</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -25729,7 +25729,7 @@
         <v>-99045.84845995993</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -25762,7 +25762,7 @@
         <v>-100406.3387599599</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -25795,7 +25795,7 @@
         <v>-97190.55185995993</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -25828,7 +25828,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -25861,7 +25861,7 @@
         <v>-97191.17335995992</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -25894,7 +25894,7 @@
         <v>-96717.58205995992</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -25927,7 +25927,7 @@
         <v>-98728.08935995992</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -25960,7 +25960,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -25993,7 +25993,7 @@
         <v>-98805.58935995992</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -26257,7 +26257,7 @@
         <v>-97479.07275995992</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -27511,17 +27511,11 @@
         <v>-113125.3612747999</v>
       </c>
       <c r="H822" t="n">
-        <v>1</v>
-      </c>
-      <c r="I822" t="n">
-        <v>4062</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I822" t="inlineStr"/>
       <c r="J822" t="inlineStr"/>
-      <c r="K822" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="K822" t="inlineStr"/>
       <c r="L822" t="n">
         <v>1</v>
       </c>
@@ -27550,17 +27544,11 @@
         <v>-100209.6920747999</v>
       </c>
       <c r="H823" t="n">
-        <v>1</v>
-      </c>
-      <c r="I823" t="n">
-        <v>4043</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I823" t="inlineStr"/>
       <c r="J823" t="inlineStr"/>
-      <c r="K823" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K823" t="inlineStr"/>
       <c r="L823" t="n">
         <v>1</v>
       </c>
@@ -27589,17 +27577,11 @@
         <v>-96653.29137479991</v>
       </c>
       <c r="H824" t="n">
-        <v>1</v>
-      </c>
-      <c r="I824" t="n">
-        <v>4076</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I824" t="inlineStr"/>
       <c r="J824" t="inlineStr"/>
-      <c r="K824" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K824" t="inlineStr"/>
       <c r="L824" t="n">
         <v>1</v>
       </c>
@@ -27632,11 +27614,7 @@
       </c>
       <c r="I825" t="inlineStr"/>
       <c r="J825" t="inlineStr"/>
-      <c r="K825" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K825" t="inlineStr"/>
       <c r="L825" t="n">
         <v>1</v>
       </c>
@@ -27669,11 +27647,7 @@
       </c>
       <c r="I826" t="inlineStr"/>
       <c r="J826" t="inlineStr"/>
-      <c r="K826" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K826" t="inlineStr"/>
       <c r="L826" t="n">
         <v>1</v>
       </c>
@@ -27702,15 +27676,11 @@
         <v>-94237.99927479991</v>
       </c>
       <c r="H827" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I827" t="inlineStr"/>
       <c r="J827" t="inlineStr"/>
-      <c r="K827" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K827" t="inlineStr"/>
       <c r="L827" t="n">
         <v>1</v>
       </c>
@@ -27739,15 +27709,11 @@
         <v>-94400.32997479991</v>
       </c>
       <c r="H828" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I828" t="inlineStr"/>
       <c r="J828" t="inlineStr"/>
-      <c r="K828" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K828" t="inlineStr"/>
       <c r="L828" t="n">
         <v>1</v>
       </c>
@@ -27780,11 +27746,7 @@
       </c>
       <c r="I829" t="inlineStr"/>
       <c r="J829" t="inlineStr"/>
-      <c r="K829" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K829" t="inlineStr"/>
       <c r="L829" t="n">
         <v>1</v>
       </c>
@@ -27813,15 +27775,11 @@
         <v>-94864.95167479992</v>
       </c>
       <c r="H830" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I830" t="inlineStr"/>
       <c r="J830" t="inlineStr"/>
-      <c r="K830" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K830" t="inlineStr"/>
       <c r="L830" t="n">
         <v>1</v>
       </c>
@@ -27850,15 +27808,11 @@
         <v>-97398.12687479991</v>
       </c>
       <c r="H831" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I831" t="inlineStr"/>
       <c r="J831" t="inlineStr"/>
-      <c r="K831" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K831" t="inlineStr"/>
       <c r="L831" t="n">
         <v>1</v>
       </c>
@@ -27891,11 +27845,7 @@
       </c>
       <c r="I832" t="inlineStr"/>
       <c r="J832" t="inlineStr"/>
-      <c r="K832" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K832" t="inlineStr"/>
       <c r="L832" t="n">
         <v>1</v>
       </c>
@@ -27928,11 +27878,7 @@
       </c>
       <c r="I833" t="inlineStr"/>
       <c r="J833" t="inlineStr"/>
-      <c r="K833" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K833" t="inlineStr"/>
       <c r="L833" t="n">
         <v>1</v>
       </c>
@@ -27965,11 +27911,7 @@
       </c>
       <c r="I834" t="inlineStr"/>
       <c r="J834" t="inlineStr"/>
-      <c r="K834" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K834" t="inlineStr"/>
       <c r="L834" t="n">
         <v>1</v>
       </c>
@@ -28002,11 +27944,7 @@
       </c>
       <c r="I835" t="inlineStr"/>
       <c r="J835" t="inlineStr"/>
-      <c r="K835" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K835" t="inlineStr"/>
       <c r="L835" t="n">
         <v>1</v>
       </c>
@@ -28035,16 +27973,14 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H836" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I836" t="inlineStr"/>
       <c r="J836" t="inlineStr"/>
-      <c r="K836" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
-      <c r="L836" t="inlineStr"/>
+      <c r="K836" t="inlineStr"/>
+      <c r="L836" t="n">
+        <v>1</v>
+      </c>
       <c r="M836" t="inlineStr"/>
     </row>
     <row r="837">
@@ -28070,7 +28006,7 @@
         <v>-94765.81362264992</v>
       </c>
       <c r="H837" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I837" t="inlineStr"/>
       <c r="J837" t="inlineStr"/>
@@ -28103,7 +28039,7 @@
         <v>-93466.44922264991</v>
       </c>
       <c r="H838" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I838" t="inlineStr"/>
       <c r="J838" t="inlineStr"/>
@@ -28136,7 +28072,7 @@
         <v>-94332.92742264991</v>
       </c>
       <c r="H839" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I839" t="inlineStr"/>
       <c r="J839" t="inlineStr"/>
@@ -28169,7 +28105,7 @@
         <v>-94091.85672264991</v>
       </c>
       <c r="H840" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I840" t="inlineStr"/>
       <c r="J840" t="inlineStr"/>
@@ -28202,7 +28138,7 @@
         <v>-95184.92412264991</v>
       </c>
       <c r="H841" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I841" t="inlineStr"/>
       <c r="J841" t="inlineStr"/>
@@ -28235,7 +28171,7 @@
         <v>-95723.15272264992</v>
       </c>
       <c r="H842" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I842" t="inlineStr"/>
       <c r="J842" t="inlineStr"/>
@@ -28400,7 +28336,7 @@
         <v>-97903.78122264991</v>
       </c>
       <c r="H847" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I847" t="inlineStr"/>
       <c r="J847" t="inlineStr"/>
@@ -28433,7 +28369,7 @@
         <v>-97891.8767226499</v>
       </c>
       <c r="H848" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I848" t="inlineStr"/>
       <c r="J848" t="inlineStr"/>
@@ -28499,7 +28435,7 @@
         <v>-97563.4465226499</v>
       </c>
       <c r="H850" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I850" t="inlineStr"/>
       <c r="J850" t="inlineStr"/>
@@ -28532,7 +28468,7 @@
         <v>-97922.67702264991</v>
       </c>
       <c r="H851" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I851" t="inlineStr"/>
       <c r="J851" t="inlineStr"/>
@@ -28565,7 +28501,7 @@
         <v>-97924.6870226499</v>
       </c>
       <c r="H852" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I852" t="inlineStr"/>
       <c r="J852" t="inlineStr"/>
@@ -28664,7 +28600,7 @@
         <v>-99645.59742264991</v>
       </c>
       <c r="H855" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I855" t="inlineStr"/>
       <c r="J855" t="inlineStr"/>
@@ -28763,7 +28699,7 @@
         <v>-99644.56172264992</v>
       </c>
       <c r="H858" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I858" t="inlineStr"/>
       <c r="J858" t="inlineStr"/>
@@ -28796,7 +28732,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H859" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I859" t="inlineStr"/>
       <c r="J859" t="inlineStr"/>
@@ -28829,7 +28765,7 @@
         <v>-98891.05622264992</v>
       </c>
       <c r="H860" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I860" t="inlineStr"/>
       <c r="J860" t="inlineStr"/>
@@ -28862,7 +28798,7 @@
         <v>-98980.07412264992</v>
       </c>
       <c r="H861" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I861" t="inlineStr"/>
       <c r="J861" t="inlineStr"/>
@@ -28895,7 +28831,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H862" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I862" t="inlineStr"/>
       <c r="J862" t="inlineStr"/>
@@ -28928,7 +28864,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H863" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I863" t="inlineStr"/>
       <c r="J863" t="inlineStr"/>
@@ -28961,7 +28897,7 @@
         <v>-98285.36012264992</v>
       </c>
       <c r="H864" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I864" t="inlineStr"/>
       <c r="J864" t="inlineStr"/>
@@ -28994,7 +28930,7 @@
         <v>-98092.96602264991</v>
       </c>
       <c r="H865" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I865" t="inlineStr"/>
       <c r="J865" t="inlineStr"/>
@@ -29027,7 +28963,7 @@
         <v>-99523.98032264991</v>
       </c>
       <c r="H866" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I866" t="inlineStr"/>
       <c r="J866" t="inlineStr"/>
@@ -29060,7 +28996,7 @@
         <v>-99102.82262264991</v>
       </c>
       <c r="H867" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I867" t="inlineStr"/>
       <c r="J867" t="inlineStr"/>
@@ -29093,7 +29029,7 @@
         <v>-102084.5720226499</v>
       </c>
       <c r="H868" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I868" t="inlineStr"/>
       <c r="J868" t="inlineStr"/>
@@ -29588,1765 +29524,1561 @@
         <v>-109335.1074226499</v>
       </c>
       <c r="H883" t="n">
-        <v>1</v>
-      </c>
-      <c r="I883" t="n">
+        <v>0</v>
+      </c>
+      <c r="I883" t="inlineStr"/>
+      <c r="J883" t="inlineStr"/>
+      <c r="K883" t="inlineStr"/>
+      <c r="L883" t="n">
+        <v>1</v>
+      </c>
+      <c r="M883" t="inlineStr"/>
+    </row>
+    <row r="884">
+      <c r="A884" s="1" t="n">
+        <v>882</v>
+      </c>
+      <c r="B884" t="n">
+        <v>4066</v>
+      </c>
+      <c r="C884" t="n">
+        <v>4073</v>
+      </c>
+      <c r="D884" t="n">
+        <v>4073</v>
+      </c>
+      <c r="E884" t="n">
+        <v>4066</v>
+      </c>
+      <c r="F884" t="n">
+        <v>10734.5303</v>
+      </c>
+      <c r="G884" t="n">
+        <v>-98600.57712264991</v>
+      </c>
+      <c r="H884" t="n">
+        <v>0</v>
+      </c>
+      <c r="I884" t="inlineStr"/>
+      <c r="J884" t="inlineStr"/>
+      <c r="K884" t="inlineStr"/>
+      <c r="L884" t="n">
+        <v>1</v>
+      </c>
+      <c r="M884" t="inlineStr"/>
+    </row>
+    <row r="885">
+      <c r="A885" s="1" t="n">
+        <v>883</v>
+      </c>
+      <c r="B885" t="n">
+        <v>4071</v>
+      </c>
+      <c r="C885" t="n">
+        <v>4067</v>
+      </c>
+      <c r="D885" t="n">
+        <v>4074</v>
+      </c>
+      <c r="E885" t="n">
+        <v>4067</v>
+      </c>
+      <c r="F885" t="n">
+        <v>1746.2717</v>
+      </c>
+      <c r="G885" t="n">
+        <v>-100346.8488226499</v>
+      </c>
+      <c r="H885" t="n">
+        <v>0</v>
+      </c>
+      <c r="I885" t="inlineStr"/>
+      <c r="J885" t="inlineStr"/>
+      <c r="K885" t="inlineStr"/>
+      <c r="L885" t="n">
+        <v>1</v>
+      </c>
+      <c r="M885" t="inlineStr"/>
+    </row>
+    <row r="886">
+      <c r="A886" s="1" t="n">
+        <v>884</v>
+      </c>
+      <c r="B886" t="n">
+        <v>4067</v>
+      </c>
+      <c r="C886" t="n">
+        <v>4066</v>
+      </c>
+      <c r="D886" t="n">
+        <v>4067</v>
+      </c>
+      <c r="E886" t="n">
+        <v>4066</v>
+      </c>
+      <c r="F886" t="n">
+        <v>550.1036</v>
+      </c>
+      <c r="G886" t="n">
+        <v>-100896.9524226499</v>
+      </c>
+      <c r="H886" t="n">
+        <v>0</v>
+      </c>
+      <c r="I886" t="inlineStr"/>
+      <c r="J886" t="inlineStr"/>
+      <c r="K886" t="inlineStr"/>
+      <c r="L886" t="n">
+        <v>1</v>
+      </c>
+      <c r="M886" t="inlineStr"/>
+    </row>
+    <row r="887">
+      <c r="A887" s="1" t="n">
+        <v>885</v>
+      </c>
+      <c r="B887" t="n">
+        <v>4073</v>
+      </c>
+      <c r="C887" t="n">
+        <v>4078</v>
+      </c>
+      <c r="D887" t="n">
+        <v>4078</v>
+      </c>
+      <c r="E887" t="n">
+        <v>4073</v>
+      </c>
+      <c r="F887" t="n">
+        <v>379.6416</v>
+      </c>
+      <c r="G887" t="n">
+        <v>-100517.3108226499</v>
+      </c>
+      <c r="H887" t="n">
+        <v>0</v>
+      </c>
+      <c r="I887" t="inlineStr"/>
+      <c r="J887" t="inlineStr"/>
+      <c r="K887" t="inlineStr"/>
+      <c r="L887" t="n">
+        <v>1</v>
+      </c>
+      <c r="M887" t="inlineStr"/>
+    </row>
+    <row r="888">
+      <c r="A888" s="1" t="n">
+        <v>886</v>
+      </c>
+      <c r="B888" t="n">
+        <v>4079</v>
+      </c>
+      <c r="C888" t="n">
+        <v>4076</v>
+      </c>
+      <c r="D888" t="n">
+        <v>4079</v>
+      </c>
+      <c r="E888" t="n">
+        <v>4076</v>
+      </c>
+      <c r="F888" t="n">
+        <v>5499.8548</v>
+      </c>
+      <c r="G888" t="n">
+        <v>-106017.1656226499</v>
+      </c>
+      <c r="H888" t="n">
+        <v>0</v>
+      </c>
+      <c r="I888" t="inlineStr"/>
+      <c r="J888" t="inlineStr"/>
+      <c r="K888" t="inlineStr"/>
+      <c r="L888" t="n">
+        <v>1</v>
+      </c>
+      <c r="M888" t="inlineStr"/>
+    </row>
+    <row r="889">
+      <c r="A889" s="1" t="n">
+        <v>887</v>
+      </c>
+      <c r="B889" t="n">
+        <v>4076</v>
+      </c>
+      <c r="C889" t="n">
+        <v>4076</v>
+      </c>
+      <c r="D889" t="n">
+        <v>4076</v>
+      </c>
+      <c r="E889" t="n">
+        <v>4076</v>
+      </c>
+      <c r="F889" t="n">
+        <v>109.9641</v>
+      </c>
+      <c r="G889" t="n">
+        <v>-106017.1656226499</v>
+      </c>
+      <c r="H889" t="n">
+        <v>0</v>
+      </c>
+      <c r="I889" t="inlineStr"/>
+      <c r="J889" t="inlineStr"/>
+      <c r="K889" t="inlineStr"/>
+      <c r="L889" t="n">
+        <v>1</v>
+      </c>
+      <c r="M889" t="inlineStr"/>
+    </row>
+    <row r="890">
+      <c r="A890" s="1" t="n">
+        <v>888</v>
+      </c>
+      <c r="B890" t="n">
+        <v>4077</v>
+      </c>
+      <c r="C890" t="n">
+        <v>4077</v>
+      </c>
+      <c r="D890" t="n">
+        <v>4077</v>
+      </c>
+      <c r="E890" t="n">
+        <v>4076</v>
+      </c>
+      <c r="F890" t="n">
+        <v>405.7786</v>
+      </c>
+      <c r="G890" t="n">
+        <v>-105611.3870226499</v>
+      </c>
+      <c r="H890" t="n">
+        <v>0</v>
+      </c>
+      <c r="I890" t="inlineStr"/>
+      <c r="J890" t="inlineStr"/>
+      <c r="K890" t="inlineStr"/>
+      <c r="L890" t="n">
+        <v>1</v>
+      </c>
+      <c r="M890" t="inlineStr"/>
+    </row>
+    <row r="891">
+      <c r="A891" s="1" t="n">
+        <v>889</v>
+      </c>
+      <c r="B891" t="n">
+        <v>4077</v>
+      </c>
+      <c r="C891" t="n">
+        <v>4077</v>
+      </c>
+      <c r="D891" t="n">
+        <v>4077</v>
+      </c>
+      <c r="E891" t="n">
+        <v>4077</v>
+      </c>
+      <c r="F891" t="n">
+        <v>54.4452</v>
+      </c>
+      <c r="G891" t="n">
+        <v>-105611.3870226499</v>
+      </c>
+      <c r="H891" t="n">
+        <v>0</v>
+      </c>
+      <c r="I891" t="inlineStr"/>
+      <c r="J891" t="inlineStr"/>
+      <c r="K891" t="inlineStr"/>
+      <c r="L891" t="n">
+        <v>1</v>
+      </c>
+      <c r="M891" t="inlineStr"/>
+    </row>
+    <row r="892">
+      <c r="A892" s="1" t="n">
+        <v>890</v>
+      </c>
+      <c r="B892" t="n">
+        <v>4073</v>
+      </c>
+      <c r="C892" t="n">
+        <v>4073</v>
+      </c>
+      <c r="D892" t="n">
+        <v>4073</v>
+      </c>
+      <c r="E892" t="n">
+        <v>4073</v>
+      </c>
+      <c r="F892" t="n">
+        <v>395.9961</v>
+      </c>
+      <c r="G892" t="n">
+        <v>-106007.3831226499</v>
+      </c>
+      <c r="H892" t="n">
+        <v>0</v>
+      </c>
+      <c r="I892" t="inlineStr"/>
+      <c r="J892" t="inlineStr"/>
+      <c r="K892" t="inlineStr"/>
+      <c r="L892" t="n">
+        <v>1</v>
+      </c>
+      <c r="M892" t="inlineStr"/>
+    </row>
+    <row r="893">
+      <c r="A893" s="1" t="n">
+        <v>891</v>
+      </c>
+      <c r="B893" t="n">
+        <v>4071</v>
+      </c>
+      <c r="C893" t="n">
         <v>4065</v>
       </c>
-      <c r="J883" t="inlineStr"/>
-      <c r="K883" t="inlineStr">
+      <c r="D893" t="n">
+        <v>4071</v>
+      </c>
+      <c r="E893" t="n">
+        <v>4065</v>
+      </c>
+      <c r="F893" t="n">
+        <v>9870.654699999999</v>
+      </c>
+      <c r="G893" t="n">
+        <v>-115878.0378226499</v>
+      </c>
+      <c r="H893" t="n">
+        <v>0</v>
+      </c>
+      <c r="I893" t="inlineStr"/>
+      <c r="J893" t="inlineStr"/>
+      <c r="K893" t="inlineStr"/>
+      <c r="L893" t="n">
+        <v>1</v>
+      </c>
+      <c r="M893" t="inlineStr"/>
+    </row>
+    <row r="894">
+      <c r="A894" s="1" t="n">
+        <v>892</v>
+      </c>
+      <c r="B894" t="n">
+        <v>4066</v>
+      </c>
+      <c r="C894" t="n">
+        <v>4066</v>
+      </c>
+      <c r="D894" t="n">
+        <v>4066</v>
+      </c>
+      <c r="E894" t="n">
+        <v>4066</v>
+      </c>
+      <c r="F894" t="n">
+        <v>7659.5663</v>
+      </c>
+      <c r="G894" t="n">
+        <v>-108218.4715226499</v>
+      </c>
+      <c r="H894" t="n">
+        <v>0</v>
+      </c>
+      <c r="I894" t="inlineStr"/>
+      <c r="J894" t="inlineStr"/>
+      <c r="K894" t="inlineStr"/>
+      <c r="L894" t="n">
+        <v>1</v>
+      </c>
+      <c r="M894" t="inlineStr"/>
+    </row>
+    <row r="895">
+      <c r="A895" s="1" t="n">
+        <v>893</v>
+      </c>
+      <c r="B895" t="n">
+        <v>4071</v>
+      </c>
+      <c r="C895" t="n">
+        <v>4079</v>
+      </c>
+      <c r="D895" t="n">
+        <v>4079</v>
+      </c>
+      <c r="E895" t="n">
+        <v>4071</v>
+      </c>
+      <c r="F895" t="n">
+        <v>1884.7914</v>
+      </c>
+      <c r="G895" t="n">
+        <v>-106333.6801226499</v>
+      </c>
+      <c r="H895" t="n">
+        <v>0</v>
+      </c>
+      <c r="I895" t="inlineStr"/>
+      <c r="J895" t="inlineStr"/>
+      <c r="K895" t="inlineStr"/>
+      <c r="L895" t="n">
+        <v>1</v>
+      </c>
+      <c r="M895" t="inlineStr"/>
+    </row>
+    <row r="896">
+      <c r="A896" s="1" t="n">
+        <v>894</v>
+      </c>
+      <c r="B896" t="n">
+        <v>4079</v>
+      </c>
+      <c r="C896" t="n">
+        <v>4079</v>
+      </c>
+      <c r="D896" t="n">
+        <v>4079</v>
+      </c>
+      <c r="E896" t="n">
+        <v>4079</v>
+      </c>
+      <c r="F896" t="n">
+        <v>2105.336</v>
+      </c>
+      <c r="G896" t="n">
+        <v>-106333.6801226499</v>
+      </c>
+      <c r="H896" t="n">
+        <v>0</v>
+      </c>
+      <c r="I896" t="inlineStr"/>
+      <c r="J896" t="inlineStr"/>
+      <c r="K896" t="inlineStr"/>
+      <c r="L896" t="n">
+        <v>1</v>
+      </c>
+      <c r="M896" t="inlineStr"/>
+    </row>
+    <row r="897">
+      <c r="A897" s="1" t="n">
+        <v>895</v>
+      </c>
+      <c r="B897" t="n">
+        <v>4075</v>
+      </c>
+      <c r="C897" t="n">
+        <v>4075</v>
+      </c>
+      <c r="D897" t="n">
+        <v>4079</v>
+      </c>
+      <c r="E897" t="n">
+        <v>4075</v>
+      </c>
+      <c r="F897" t="n">
+        <v>696.6784695</v>
+      </c>
+      <c r="G897" t="n">
+        <v>-107030.3585921499</v>
+      </c>
+      <c r="H897" t="n">
+        <v>0</v>
+      </c>
+      <c r="I897" t="inlineStr"/>
+      <c r="J897" t="inlineStr"/>
+      <c r="K897" t="inlineStr"/>
+      <c r="L897" t="n">
+        <v>1</v>
+      </c>
+      <c r="M897" t="inlineStr"/>
+    </row>
+    <row r="898">
+      <c r="A898" s="1" t="n">
+        <v>896</v>
+      </c>
+      <c r="B898" t="n">
+        <v>4077</v>
+      </c>
+      <c r="C898" t="n">
+        <v>4080</v>
+      </c>
+      <c r="D898" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E898" t="n">
+        <v>4077</v>
+      </c>
+      <c r="F898" t="n">
+        <v>909.16813725</v>
+      </c>
+      <c r="G898" t="n">
+        <v>-106121.1904548999</v>
+      </c>
+      <c r="H898" t="n">
+        <v>0</v>
+      </c>
+      <c r="I898" t="inlineStr"/>
+      <c r="J898" t="inlineStr"/>
+      <c r="K898" t="inlineStr"/>
+      <c r="L898" t="n">
+        <v>1</v>
+      </c>
+      <c r="M898" t="inlineStr"/>
+    </row>
+    <row r="899">
+      <c r="A899" s="1" t="n">
+        <v>897</v>
+      </c>
+      <c r="B899" t="n">
+        <v>4080</v>
+      </c>
+      <c r="C899" t="n">
+        <v>4080</v>
+      </c>
+      <c r="D899" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E899" t="n">
+        <v>4080</v>
+      </c>
+      <c r="F899" t="n">
+        <v>991.49298039</v>
+      </c>
+      <c r="G899" t="n">
+        <v>-106121.1904548999</v>
+      </c>
+      <c r="H899" t="n">
+        <v>0</v>
+      </c>
+      <c r="I899" t="inlineStr"/>
+      <c r="J899" t="inlineStr"/>
+      <c r="K899" t="inlineStr"/>
+      <c r="L899" t="n">
+        <v>1</v>
+      </c>
+      <c r="M899" t="inlineStr"/>
+    </row>
+    <row r="900">
+      <c r="A900" s="1" t="n">
+        <v>898</v>
+      </c>
+      <c r="B900" t="n">
+        <v>4077</v>
+      </c>
+      <c r="C900" t="n">
+        <v>4080</v>
+      </c>
+      <c r="D900" t="n">
+        <v>4080</v>
+      </c>
+      <c r="E900" t="n">
+        <v>4077</v>
+      </c>
+      <c r="F900" t="n">
+        <v>565.41070784</v>
+      </c>
+      <c r="G900" t="n">
+        <v>-106121.1904548999</v>
+      </c>
+      <c r="H900" t="n">
+        <v>0</v>
+      </c>
+      <c r="I900" t="inlineStr"/>
+      <c r="J900" t="inlineStr"/>
+      <c r="K900" t="inlineStr"/>
+      <c r="L900" t="n">
+        <v>1</v>
+      </c>
+      <c r="M900" t="inlineStr"/>
+    </row>
+    <row r="901">
+      <c r="A901" s="1" t="n">
+        <v>899</v>
+      </c>
+      <c r="B901" t="n">
+        <v>4075</v>
+      </c>
+      <c r="C901" t="n">
+        <v>4072</v>
+      </c>
+      <c r="D901" t="n">
+        <v>4077</v>
+      </c>
+      <c r="E901" t="n">
+        <v>4071</v>
+      </c>
+      <c r="F901" t="n">
+        <v>980.2877</v>
+      </c>
+      <c r="G901" t="n">
+        <v>-107101.4781548999</v>
+      </c>
+      <c r="H901" t="n">
+        <v>0</v>
+      </c>
+      <c r="I901" t="inlineStr"/>
+      <c r="J901" t="inlineStr"/>
+      <c r="K901" t="inlineStr"/>
+      <c r="L901" t="n">
+        <v>1</v>
+      </c>
+      <c r="M901" t="inlineStr"/>
+    </row>
+    <row r="902">
+      <c r="A902" s="1" t="n">
+        <v>900</v>
+      </c>
+      <c r="B902" t="n">
+        <v>4072</v>
+      </c>
+      <c r="C902" t="n">
+        <v>4071</v>
+      </c>
+      <c r="D902" t="n">
+        <v>4072</v>
+      </c>
+      <c r="E902" t="n">
+        <v>4071</v>
+      </c>
+      <c r="F902" t="n">
+        <v>390.36504557</v>
+      </c>
+      <c r="G902" t="n">
+        <v>-107491.8432004699</v>
+      </c>
+      <c r="H902" t="n">
+        <v>0</v>
+      </c>
+      <c r="I902" t="inlineStr"/>
+      <c r="J902" t="inlineStr"/>
+      <c r="K902" t="inlineStr"/>
+      <c r="L902" t="n">
+        <v>1</v>
+      </c>
+      <c r="M902" t="inlineStr"/>
+    </row>
+    <row r="903">
+      <c r="A903" s="1" t="n">
+        <v>901</v>
+      </c>
+      <c r="B903" t="n">
+        <v>4072</v>
+      </c>
+      <c r="C903" t="n">
+        <v>4068</v>
+      </c>
+      <c r="D903" t="n">
+        <v>4072</v>
+      </c>
+      <c r="E903" t="n">
+        <v>4068</v>
+      </c>
+      <c r="F903" t="n">
+        <v>3100.65973418</v>
+      </c>
+      <c r="G903" t="n">
+        <v>-110592.5029346499</v>
+      </c>
+      <c r="H903" t="n">
+        <v>0</v>
+      </c>
+      <c r="I903" t="inlineStr"/>
+      <c r="J903" t="inlineStr"/>
+      <c r="K903" t="inlineStr"/>
+      <c r="L903" t="n">
+        <v>1</v>
+      </c>
+      <c r="M903" t="inlineStr"/>
+    </row>
+    <row r="904">
+      <c r="A904" s="1" t="n">
+        <v>902</v>
+      </c>
+      <c r="B904" t="n">
+        <v>4072</v>
+      </c>
+      <c r="C904" t="n">
+        <v>4072</v>
+      </c>
+      <c r="D904" t="n">
+        <v>4072</v>
+      </c>
+      <c r="E904" t="n">
+        <v>4071</v>
+      </c>
+      <c r="F904" t="n">
+        <v>1441.43123458</v>
+      </c>
+      <c r="G904" t="n">
+        <v>-109151.0717000699</v>
+      </c>
+      <c r="H904" t="n">
+        <v>0</v>
+      </c>
+      <c r="I904" t="inlineStr"/>
+      <c r="J904" t="inlineStr"/>
+      <c r="K904" t="inlineStr"/>
+      <c r="L904" t="n">
+        <v>1</v>
+      </c>
+      <c r="M904" t="inlineStr"/>
+    </row>
+    <row r="905">
+      <c r="A905" s="1" t="n">
+        <v>903</v>
+      </c>
+      <c r="B905" t="n">
+        <v>4072</v>
+      </c>
+      <c r="C905" t="n">
+        <v>4068</v>
+      </c>
+      <c r="D905" t="n">
+        <v>4072</v>
+      </c>
+      <c r="E905" t="n">
+        <v>4068</v>
+      </c>
+      <c r="F905" t="n">
+        <v>2185.96267878</v>
+      </c>
+      <c r="G905" t="n">
+        <v>-111337.0343788499</v>
+      </c>
+      <c r="H905" t="n">
+        <v>0</v>
+      </c>
+      <c r="I905" t="inlineStr"/>
+      <c r="J905" t="inlineStr"/>
+      <c r="K905" t="inlineStr"/>
+      <c r="L905" t="n">
+        <v>1</v>
+      </c>
+      <c r="M905" t="inlineStr"/>
+    </row>
+    <row r="906">
+      <c r="A906" s="1" t="n">
+        <v>904</v>
+      </c>
+      <c r="B906" t="n">
+        <v>4068</v>
+      </c>
+      <c r="C906" t="n">
+        <v>4062</v>
+      </c>
+      <c r="D906" t="n">
+        <v>4068</v>
+      </c>
+      <c r="E906" t="n">
+        <v>4055</v>
+      </c>
+      <c r="F906" t="n">
+        <v>4643.35278249</v>
+      </c>
+      <c r="G906" t="n">
+        <v>-115980.3871613399</v>
+      </c>
+      <c r="H906" t="n">
+        <v>0</v>
+      </c>
+      <c r="I906" t="inlineStr"/>
+      <c r="J906" t="inlineStr"/>
+      <c r="K906" t="inlineStr"/>
+      <c r="L906" t="n">
+        <v>1</v>
+      </c>
+      <c r="M906" t="inlineStr"/>
+    </row>
+    <row r="907">
+      <c r="A907" s="1" t="n">
+        <v>905</v>
+      </c>
+      <c r="B907" t="n">
+        <v>4065</v>
+      </c>
+      <c r="C907" t="n">
+        <v>4058</v>
+      </c>
+      <c r="D907" t="n">
+        <v>4065</v>
+      </c>
+      <c r="E907" t="n">
+        <v>4058</v>
+      </c>
+      <c r="F907" t="n">
+        <v>520.7572</v>
+      </c>
+      <c r="G907" t="n">
+        <v>-116501.1443613399</v>
+      </c>
+      <c r="H907" t="n">
+        <v>0</v>
+      </c>
+      <c r="I907" t="inlineStr"/>
+      <c r="J907" t="inlineStr"/>
+      <c r="K907" t="inlineStr"/>
+      <c r="L907" t="n">
+        <v>1</v>
+      </c>
+      <c r="M907" t="inlineStr"/>
+    </row>
+    <row r="908">
+      <c r="A908" s="1" t="n">
+        <v>906</v>
+      </c>
+      <c r="B908" t="n">
+        <v>4058</v>
+      </c>
+      <c r="C908" t="n">
+        <v>4056</v>
+      </c>
+      <c r="D908" t="n">
+        <v>4058</v>
+      </c>
+      <c r="E908" t="n">
+        <v>4056</v>
+      </c>
+      <c r="F908" t="n">
+        <v>1316.7621</v>
+      </c>
+      <c r="G908" t="n">
+        <v>-117817.9064613399</v>
+      </c>
+      <c r="H908" t="n">
+        <v>0</v>
+      </c>
+      <c r="I908" t="inlineStr"/>
+      <c r="J908" t="inlineStr"/>
+      <c r="K908" t="inlineStr"/>
+      <c r="L908" t="n">
+        <v>1</v>
+      </c>
+      <c r="M908" t="inlineStr"/>
+    </row>
+    <row r="909">
+      <c r="A909" s="1" t="n">
+        <v>907</v>
+      </c>
+      <c r="B909" t="n">
+        <v>4056</v>
+      </c>
+      <c r="C909" t="n">
+        <v>4056</v>
+      </c>
+      <c r="D909" t="n">
+        <v>4056</v>
+      </c>
+      <c r="E909" t="n">
+        <v>4056</v>
+      </c>
+      <c r="F909" t="n">
+        <v>171.1639</v>
+      </c>
+      <c r="G909" t="n">
+        <v>-117817.9064613399</v>
+      </c>
+      <c r="H909" t="n">
+        <v>0</v>
+      </c>
+      <c r="I909" t="inlineStr"/>
+      <c r="J909" t="inlineStr"/>
+      <c r="K909" t="inlineStr"/>
+      <c r="L909" t="n">
+        <v>1</v>
+      </c>
+      <c r="M909" t="inlineStr"/>
+    </row>
+    <row r="910">
+      <c r="A910" s="1" t="n">
+        <v>908</v>
+      </c>
+      <c r="B910" t="n">
+        <v>4056</v>
+      </c>
+      <c r="C910" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D910" t="n">
+        <v>4057</v>
+      </c>
+      <c r="E910" t="n">
+        <v>4055</v>
+      </c>
+      <c r="F910" t="n">
+        <v>4619.1795</v>
+      </c>
+      <c r="G910" t="n">
+        <v>-122437.0859613398</v>
+      </c>
+      <c r="H910" t="n">
+        <v>0</v>
+      </c>
+      <c r="I910" t="inlineStr"/>
+      <c r="J910" t="inlineStr"/>
+      <c r="K910" t="inlineStr"/>
+      <c r="L910" t="n">
+        <v>1</v>
+      </c>
+      <c r="M910" t="inlineStr"/>
+    </row>
+    <row r="911">
+      <c r="A911" s="1" t="n">
+        <v>909</v>
+      </c>
+      <c r="B911" t="n">
+        <v>4064</v>
+      </c>
+      <c r="C911" t="n">
+        <v>4064</v>
+      </c>
+      <c r="D911" t="n">
+        <v>4064</v>
+      </c>
+      <c r="E911" t="n">
+        <v>4064</v>
+      </c>
+      <c r="F911" t="n">
+        <v>12.125</v>
+      </c>
+      <c r="G911" t="n">
+        <v>-122424.9609613398</v>
+      </c>
+      <c r="H911" t="n">
+        <v>0</v>
+      </c>
+      <c r="I911" t="inlineStr"/>
+      <c r="J911" t="inlineStr"/>
+      <c r="K911" t="inlineStr"/>
+      <c r="L911" t="n">
+        <v>1</v>
+      </c>
+      <c r="M911" t="inlineStr"/>
+    </row>
+    <row r="912">
+      <c r="A912" s="1" t="n">
+        <v>910</v>
+      </c>
+      <c r="B912" t="n">
+        <v>4064</v>
+      </c>
+      <c r="C912" t="n">
+        <v>4050</v>
+      </c>
+      <c r="D912" t="n">
+        <v>4064</v>
+      </c>
+      <c r="E912" t="n">
+        <v>4050</v>
+      </c>
+      <c r="F912" t="n">
+        <v>5327.1985</v>
+      </c>
+      <c r="G912" t="n">
+        <v>-127752.1594613398</v>
+      </c>
+      <c r="H912" t="n">
+        <v>0</v>
+      </c>
+      <c r="I912" t="inlineStr"/>
+      <c r="J912" t="inlineStr"/>
+      <c r="K912" t="inlineStr"/>
+      <c r="L912" t="n">
+        <v>1</v>
+      </c>
+      <c r="M912" t="inlineStr"/>
+    </row>
+    <row r="913">
+      <c r="A913" s="1" t="n">
+        <v>911</v>
+      </c>
+      <c r="B913" t="n">
+        <v>4045</v>
+      </c>
+      <c r="C913" t="n">
+        <v>4047</v>
+      </c>
+      <c r="D913" t="n">
+        <v>4047</v>
+      </c>
+      <c r="E913" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F913" t="n">
+        <v>4032.965</v>
+      </c>
+      <c r="G913" t="n">
+        <v>-131785.1244613398</v>
+      </c>
+      <c r="H913" t="n">
+        <v>0</v>
+      </c>
+      <c r="I913" t="inlineStr"/>
+      <c r="J913" t="inlineStr"/>
+      <c r="K913" t="inlineStr"/>
+      <c r="L913" t="n">
+        <v>1</v>
+      </c>
+      <c r="M913" t="inlineStr"/>
+    </row>
+    <row r="914">
+      <c r="A914" s="1" t="n">
+        <v>912</v>
+      </c>
+      <c r="B914" t="n">
+        <v>4045</v>
+      </c>
+      <c r="C914" t="n">
+        <v>4045</v>
+      </c>
+      <c r="D914" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E914" t="n">
+        <v>4041</v>
+      </c>
+      <c r="F914" t="n">
+        <v>2694.2258</v>
+      </c>
+      <c r="G914" t="n">
+        <v>-134479.3502613399</v>
+      </c>
+      <c r="H914" t="n">
+        <v>0</v>
+      </c>
+      <c r="I914" t="inlineStr"/>
+      <c r="J914" t="inlineStr"/>
+      <c r="K914" t="inlineStr"/>
+      <c r="L914" t="n">
+        <v>1</v>
+      </c>
+      <c r="M914" t="inlineStr"/>
+    </row>
+    <row r="915">
+      <c r="A915" s="1" t="n">
+        <v>913</v>
+      </c>
+      <c r="B915" t="n">
+        <v>4046</v>
+      </c>
+      <c r="C915" t="n">
+        <v>4059</v>
+      </c>
+      <c r="D915" t="n">
+        <v>4059</v>
+      </c>
+      <c r="E915" t="n">
+        <v>4046</v>
+      </c>
+      <c r="F915" t="n">
+        <v>3804.2281</v>
+      </c>
+      <c r="G915" t="n">
+        <v>-130675.1221613399</v>
+      </c>
+      <c r="H915" t="n">
+        <v>0</v>
+      </c>
+      <c r="I915" t="inlineStr"/>
+      <c r="J915" t="inlineStr"/>
+      <c r="K915" t="inlineStr"/>
+      <c r="L915" t="n">
+        <v>1</v>
+      </c>
+      <c r="M915" t="inlineStr"/>
+    </row>
+    <row r="916">
+      <c r="A916" s="1" t="n">
+        <v>914</v>
+      </c>
+      <c r="B916" t="n">
+        <v>4063</v>
+      </c>
+      <c r="C916" t="n">
+        <v>4063</v>
+      </c>
+      <c r="D916" t="n">
+        <v>4063</v>
+      </c>
+      <c r="E916" t="n">
+        <v>4063</v>
+      </c>
+      <c r="F916" t="n">
+        <v>207.5432</v>
+      </c>
+      <c r="G916" t="n">
+        <v>-130467.5789613399</v>
+      </c>
+      <c r="H916" t="n">
+        <v>0</v>
+      </c>
+      <c r="I916" t="inlineStr"/>
+      <c r="J916" t="inlineStr"/>
+      <c r="K916" t="inlineStr"/>
+      <c r="L916" t="n">
+        <v>1</v>
+      </c>
+      <c r="M916" t="inlineStr"/>
+    </row>
+    <row r="917">
+      <c r="A917" s="1" t="n">
+        <v>915</v>
+      </c>
+      <c r="B917" t="n">
+        <v>4055</v>
+      </c>
+      <c r="C917" t="n">
+        <v>4055</v>
+      </c>
+      <c r="D917" t="n">
+        <v>4055</v>
+      </c>
+      <c r="E917" t="n">
+        <v>4055</v>
+      </c>
+      <c r="F917" t="n">
+        <v>64.0274</v>
+      </c>
+      <c r="G917" t="n">
+        <v>-130531.6063613399</v>
+      </c>
+      <c r="H917" t="n">
+        <v>0</v>
+      </c>
+      <c r="I917" t="inlineStr"/>
+      <c r="J917" t="inlineStr"/>
+      <c r="K917" t="inlineStr"/>
+      <c r="L917" t="n">
+        <v>1</v>
+      </c>
+      <c r="M917" t="inlineStr"/>
+    </row>
+    <row r="918">
+      <c r="A918" s="1" t="n">
+        <v>916</v>
+      </c>
+      <c r="B918" t="n">
+        <v>4064</v>
+      </c>
+      <c r="C918" t="n">
+        <v>4065</v>
+      </c>
+      <c r="D918" t="n">
+        <v>4065</v>
+      </c>
+      <c r="E918" t="n">
+        <v>4060</v>
+      </c>
+      <c r="F918" t="n">
+        <v>141.3381</v>
+      </c>
+      <c r="G918" t="n">
+        <v>-130390.2682613399</v>
+      </c>
+      <c r="H918" t="n">
+        <v>0</v>
+      </c>
+      <c r="I918" t="inlineStr"/>
+      <c r="J918" t="inlineStr"/>
+      <c r="K918" t="inlineStr"/>
+      <c r="L918" t="n">
+        <v>1</v>
+      </c>
+      <c r="M918" t="inlineStr"/>
+    </row>
+    <row r="919">
+      <c r="A919" s="1" t="n">
+        <v>917</v>
+      </c>
+      <c r="B919" t="n">
+        <v>4060</v>
+      </c>
+      <c r="C919" t="n">
+        <v>4056</v>
+      </c>
+      <c r="D919" t="n">
+        <v>4060</v>
+      </c>
+      <c r="E919" t="n">
+        <v>4055</v>
+      </c>
+      <c r="F919" t="n">
+        <v>2260.9339</v>
+      </c>
+      <c r="G919" t="n">
+        <v>-132651.2021613399</v>
+      </c>
+      <c r="H919" t="n">
+        <v>0</v>
+      </c>
+      <c r="I919" t="inlineStr"/>
+      <c r="J919" t="inlineStr"/>
+      <c r="K919" t="inlineStr"/>
+      <c r="L919" t="n">
+        <v>1</v>
+      </c>
+      <c r="M919" t="inlineStr"/>
+    </row>
+    <row r="920">
+      <c r="A920" s="1" t="n">
+        <v>918</v>
+      </c>
+      <c r="B920" t="n">
+        <v>4054</v>
+      </c>
+      <c r="C920" t="n">
+        <v>4051</v>
+      </c>
+      <c r="D920" t="n">
+        <v>4054</v>
+      </c>
+      <c r="E920" t="n">
+        <v>4051</v>
+      </c>
+      <c r="F920" t="n">
+        <v>795.1354</v>
+      </c>
+      <c r="G920" t="n">
+        <v>-133446.3375613399</v>
+      </c>
+      <c r="H920" t="n">
+        <v>0</v>
+      </c>
+      <c r="I920" t="inlineStr"/>
+      <c r="J920" t="inlineStr"/>
+      <c r="K920" t="inlineStr"/>
+      <c r="L920" t="n">
+        <v>1</v>
+      </c>
+      <c r="M920" t="inlineStr"/>
+    </row>
+    <row r="921">
+      <c r="A921" s="1" t="n">
+        <v>919</v>
+      </c>
+      <c r="B921" t="n">
+        <v>4054</v>
+      </c>
+      <c r="C921" t="n">
+        <v>4051</v>
+      </c>
+      <c r="D921" t="n">
+        <v>4054</v>
+      </c>
+      <c r="E921" t="n">
+        <v>4051</v>
+      </c>
+      <c r="F921" t="n">
+        <v>1145.359</v>
+      </c>
+      <c r="G921" t="n">
+        <v>-133446.3375613399</v>
+      </c>
+      <c r="H921" t="n">
+        <v>0</v>
+      </c>
+      <c r="I921" t="inlineStr"/>
+      <c r="J921" t="inlineStr"/>
+      <c r="K921" t="inlineStr"/>
+      <c r="L921" t="n">
+        <v>1</v>
+      </c>
+      <c r="M921" t="inlineStr"/>
+    </row>
+    <row r="922">
+      <c r="A922" s="1" t="n">
+        <v>920</v>
+      </c>
+      <c r="B922" t="n">
+        <v>4051</v>
+      </c>
+      <c r="C922" t="n">
+        <v>4037</v>
+      </c>
+      <c r="D922" t="n">
+        <v>4051</v>
+      </c>
+      <c r="E922" t="n">
+        <v>4037</v>
+      </c>
+      <c r="F922" t="n">
+        <v>4224.5639</v>
+      </c>
+      <c r="G922" t="n">
+        <v>-137670.9014613399</v>
+      </c>
+      <c r="H922" t="n">
+        <v>0</v>
+      </c>
+      <c r="I922" t="inlineStr"/>
+      <c r="J922" t="inlineStr"/>
+      <c r="K922" t="inlineStr"/>
+      <c r="L922" t="n">
+        <v>1</v>
+      </c>
+      <c r="M922" t="inlineStr"/>
+    </row>
+    <row r="923">
+      <c r="A923" s="1" t="n">
+        <v>921</v>
+      </c>
+      <c r="B923" t="n">
+        <v>4040</v>
+      </c>
+      <c r="C923" t="n">
+        <v>4039</v>
+      </c>
+      <c r="D923" t="n">
+        <v>4040</v>
+      </c>
+      <c r="E923" t="n">
+        <v>4039</v>
+      </c>
+      <c r="F923" t="n">
+        <v>5611.774</v>
+      </c>
+      <c r="G923" t="n">
+        <v>-132059.1274613399</v>
+      </c>
+      <c r="H923" t="n">
+        <v>0</v>
+      </c>
+      <c r="I923" t="inlineStr"/>
+      <c r="J923" t="inlineStr"/>
+      <c r="K923" t="inlineStr"/>
+      <c r="L923" t="n">
+        <v>1</v>
+      </c>
+      <c r="M923" t="inlineStr"/>
+    </row>
+    <row r="924">
+      <c r="A924" s="1" t="n">
+        <v>922</v>
+      </c>
+      <c r="B924" t="n">
+        <v>4039</v>
+      </c>
+      <c r="C924" t="n">
+        <v>4039</v>
+      </c>
+      <c r="D924" t="n">
+        <v>4039</v>
+      </c>
+      <c r="E924" t="n">
+        <v>4039</v>
+      </c>
+      <c r="F924" t="n">
+        <v>140.4223</v>
+      </c>
+      <c r="G924" t="n">
+        <v>-132059.1274613399</v>
+      </c>
+      <c r="H924" t="n">
+        <v>0</v>
+      </c>
+      <c r="I924" t="inlineStr"/>
+      <c r="J924" t="inlineStr"/>
+      <c r="K924" t="inlineStr"/>
+      <c r="L924" t="n">
+        <v>1</v>
+      </c>
+      <c r="M924" t="inlineStr"/>
+    </row>
+    <row r="925">
+      <c r="A925" s="1" t="n">
+        <v>923</v>
+      </c>
+      <c r="B925" t="n">
+        <v>4043</v>
+      </c>
+      <c r="C925" t="n">
+        <v>4043</v>
+      </c>
+      <c r="D925" t="n">
+        <v>4043</v>
+      </c>
+      <c r="E925" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F925" t="n">
+        <v>135.3974</v>
+      </c>
+      <c r="G925" t="n">
+        <v>-131923.7300613399</v>
+      </c>
+      <c r="H925" t="n">
+        <v>1</v>
+      </c>
+      <c r="I925" t="n">
+        <v>4039</v>
+      </c>
+      <c r="J925" t="n">
+        <v>4039</v>
+      </c>
+      <c r="K925" t="inlineStr"/>
+      <c r="L925" t="n">
+        <v>1</v>
+      </c>
+      <c r="M925" t="inlineStr"/>
+    </row>
+    <row r="926">
+      <c r="A926" s="1" t="n">
+        <v>924</v>
+      </c>
+      <c r="B926" t="n">
+        <v>4043</v>
+      </c>
+      <c r="C926" t="n">
+        <v>4043</v>
+      </c>
+      <c r="D926" t="n">
+        <v>4043</v>
+      </c>
+      <c r="E926" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F926" t="n">
+        <v>19.0035</v>
+      </c>
+      <c r="G926" t="n">
+        <v>-131923.7300613399</v>
+      </c>
+      <c r="H926" t="n">
+        <v>1</v>
+      </c>
+      <c r="I926" t="n">
+        <v>4043</v>
+      </c>
+      <c r="J926" t="n">
+        <v>4039</v>
+      </c>
+      <c r="K926" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L926" t="n">
+        <v>1</v>
+      </c>
+      <c r="M926" t="inlineStr"/>
+    </row>
+    <row r="927">
+      <c r="A927" s="1" t="n">
+        <v>925</v>
+      </c>
+      <c r="B927" t="n">
+        <v>4045</v>
+      </c>
+      <c r="C927" t="n">
+        <v>4045</v>
+      </c>
+      <c r="D927" t="n">
+        <v>4045</v>
+      </c>
+      <c r="E927" t="n">
+        <v>4045</v>
+      </c>
+      <c r="F927" t="n">
+        <v>74.3749</v>
+      </c>
+      <c r="G927" t="n">
+        <v>-131849.3551613399</v>
+      </c>
+      <c r="H927" t="n">
+        <v>1</v>
+      </c>
+      <c r="I927" t="n">
+        <v>4043</v>
+      </c>
+      <c r="J927" t="n">
+        <v>4039</v>
+      </c>
+      <c r="K927" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L927" t="n">
+        <v>1</v>
+      </c>
+      <c r="M927" t="inlineStr"/>
+    </row>
+    <row r="928">
+      <c r="A928" s="1" t="n">
+        <v>926</v>
+      </c>
+      <c r="B928" t="n">
+        <v>4043</v>
+      </c>
+      <c r="C928" t="n">
+        <v>4043</v>
+      </c>
+      <c r="D928" t="n">
+        <v>4043</v>
+      </c>
+      <c r="E928" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F928" t="n">
+        <v>204.9414</v>
+      </c>
+      <c r="G928" t="n">
+        <v>-132054.2965613399</v>
+      </c>
+      <c r="H928" t="n">
+        <v>1</v>
+      </c>
+      <c r="I928" t="n">
+        <v>4045</v>
+      </c>
+      <c r="J928" t="n">
+        <v>4045</v>
+      </c>
+      <c r="K928" t="inlineStr"/>
+      <c r="L928" t="n">
+        <v>1</v>
+      </c>
+      <c r="M928" t="inlineStr"/>
+    </row>
+    <row r="929">
+      <c r="A929" s="1" t="n">
+        <v>927</v>
+      </c>
+      <c r="B929" t="n">
+        <v>4045</v>
+      </c>
+      <c r="C929" t="n">
+        <v>4053</v>
+      </c>
+      <c r="D929" t="n">
+        <v>4062</v>
+      </c>
+      <c r="E929" t="n">
+        <v>4043</v>
+      </c>
+      <c r="F929" t="n">
+        <v>9580.177299999999</v>
+      </c>
+      <c r="G929" t="n">
+        <v>-122474.1192613399</v>
+      </c>
+      <c r="H929" t="n">
+        <v>1</v>
+      </c>
+      <c r="I929" t="n">
+        <v>4043</v>
+      </c>
+      <c r="J929" t="n">
+        <v>4045</v>
+      </c>
+      <c r="K929" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L883" t="n">
-        <v>1</v>
-      </c>
-      <c r="M883" t="inlineStr"/>
-    </row>
-    <row r="884">
-      <c r="A884" s="1" t="n">
-        <v>882</v>
-      </c>
-      <c r="B884" t="n">
-        <v>4066</v>
-      </c>
-      <c r="C884" t="n">
-        <v>4073</v>
-      </c>
-      <c r="D884" t="n">
-        <v>4073</v>
-      </c>
-      <c r="E884" t="n">
-        <v>4066</v>
-      </c>
-      <c r="F884" t="n">
-        <v>10734.5303</v>
-      </c>
-      <c r="G884" t="n">
-        <v>-98600.57712264991</v>
-      </c>
-      <c r="H884" t="n">
-        <v>1</v>
-      </c>
-      <c r="I884" t="n">
-        <v>4061</v>
-      </c>
-      <c r="J884" t="inlineStr"/>
-      <c r="K884" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L884" t="n">
-        <v>1</v>
-      </c>
-      <c r="M884" t="inlineStr"/>
-    </row>
-    <row r="885">
-      <c r="A885" s="1" t="n">
-        <v>883</v>
-      </c>
-      <c r="B885" t="n">
-        <v>4071</v>
-      </c>
-      <c r="C885" t="n">
-        <v>4067</v>
-      </c>
-      <c r="D885" t="n">
-        <v>4074</v>
-      </c>
-      <c r="E885" t="n">
-        <v>4067</v>
-      </c>
-      <c r="F885" t="n">
-        <v>1746.2717</v>
-      </c>
-      <c r="G885" t="n">
-        <v>-100346.8488226499</v>
-      </c>
-      <c r="H885" t="n">
-        <v>0</v>
-      </c>
-      <c r="I885" t="inlineStr"/>
-      <c r="J885" t="inlineStr"/>
-      <c r="K885" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L885" t="n">
-        <v>1</v>
-      </c>
-      <c r="M885" t="inlineStr"/>
-    </row>
-    <row r="886">
-      <c r="A886" s="1" t="n">
-        <v>884</v>
-      </c>
-      <c r="B886" t="n">
-        <v>4067</v>
-      </c>
-      <c r="C886" t="n">
-        <v>4066</v>
-      </c>
-      <c r="D886" t="n">
-        <v>4067</v>
-      </c>
-      <c r="E886" t="n">
-        <v>4066</v>
-      </c>
-      <c r="F886" t="n">
-        <v>550.1036</v>
-      </c>
-      <c r="G886" t="n">
-        <v>-100896.9524226499</v>
-      </c>
-      <c r="H886" t="n">
-        <v>1</v>
-      </c>
-      <c r="I886" t="n">
-        <v>4067</v>
-      </c>
-      <c r="J886" t="inlineStr"/>
-      <c r="K886" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L886" t="n">
-        <v>1</v>
-      </c>
-      <c r="M886" t="inlineStr"/>
-    </row>
-    <row r="887">
-      <c r="A887" s="1" t="n">
-        <v>885</v>
-      </c>
-      <c r="B887" t="n">
-        <v>4073</v>
-      </c>
-      <c r="C887" t="n">
-        <v>4078</v>
-      </c>
-      <c r="D887" t="n">
-        <v>4078</v>
-      </c>
-      <c r="E887" t="n">
-        <v>4073</v>
-      </c>
-      <c r="F887" t="n">
-        <v>379.6416</v>
-      </c>
-      <c r="G887" t="n">
-        <v>-100517.3108226499</v>
-      </c>
-      <c r="H887" t="n">
-        <v>1</v>
-      </c>
-      <c r="I887" t="n">
-        <v>4066</v>
-      </c>
-      <c r="J887" t="inlineStr"/>
-      <c r="K887" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L887" t="n">
-        <v>1</v>
-      </c>
-      <c r="M887" t="inlineStr"/>
-    </row>
-    <row r="888">
-      <c r="A888" s="1" t="n">
-        <v>886</v>
-      </c>
-      <c r="B888" t="n">
-        <v>4079</v>
-      </c>
-      <c r="C888" t="n">
-        <v>4076</v>
-      </c>
-      <c r="D888" t="n">
-        <v>4079</v>
-      </c>
-      <c r="E888" t="n">
-        <v>4076</v>
-      </c>
-      <c r="F888" t="n">
-        <v>5499.8548</v>
-      </c>
-      <c r="G888" t="n">
-        <v>-106017.1656226499</v>
-      </c>
-      <c r="H888" t="n">
-        <v>1</v>
-      </c>
-      <c r="I888" t="n">
-        <v>4078</v>
-      </c>
-      <c r="J888" t="inlineStr"/>
-      <c r="K888" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L888" t="n">
-        <v>1</v>
-      </c>
-      <c r="M888" t="inlineStr"/>
-    </row>
-    <row r="889">
-      <c r="A889" s="1" t="n">
-        <v>887</v>
-      </c>
-      <c r="B889" t="n">
-        <v>4076</v>
-      </c>
-      <c r="C889" t="n">
-        <v>4076</v>
-      </c>
-      <c r="D889" t="n">
-        <v>4076</v>
-      </c>
-      <c r="E889" t="n">
-        <v>4076</v>
-      </c>
-      <c r="F889" t="n">
-        <v>109.9641</v>
-      </c>
-      <c r="G889" t="n">
-        <v>-106017.1656226499</v>
-      </c>
-      <c r="H889" t="n">
-        <v>0</v>
-      </c>
-      <c r="I889" t="inlineStr"/>
-      <c r="J889" t="inlineStr"/>
-      <c r="K889" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L889" t="n">
-        <v>1</v>
-      </c>
-      <c r="M889" t="inlineStr"/>
-    </row>
-    <row r="890">
-      <c r="A890" s="1" t="n">
-        <v>888</v>
-      </c>
-      <c r="B890" t="n">
-        <v>4077</v>
-      </c>
-      <c r="C890" t="n">
-        <v>4077</v>
-      </c>
-      <c r="D890" t="n">
-        <v>4077</v>
-      </c>
-      <c r="E890" t="n">
-        <v>4076</v>
-      </c>
-      <c r="F890" t="n">
-        <v>405.7786</v>
-      </c>
-      <c r="G890" t="n">
-        <v>-105611.3870226499</v>
-      </c>
-      <c r="H890" t="n">
-        <v>1</v>
-      </c>
-      <c r="I890" t="n">
-        <v>4076</v>
-      </c>
-      <c r="J890" t="inlineStr"/>
-      <c r="K890" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L890" t="n">
-        <v>1</v>
-      </c>
-      <c r="M890" t="inlineStr"/>
-    </row>
-    <row r="891">
-      <c r="A891" s="1" t="n">
-        <v>889</v>
-      </c>
-      <c r="B891" t="n">
-        <v>4077</v>
-      </c>
-      <c r="C891" t="n">
-        <v>4077</v>
-      </c>
-      <c r="D891" t="n">
-        <v>4077</v>
-      </c>
-      <c r="E891" t="n">
-        <v>4077</v>
-      </c>
-      <c r="F891" t="n">
-        <v>54.4452</v>
-      </c>
-      <c r="G891" t="n">
-        <v>-105611.3870226499</v>
-      </c>
-      <c r="H891" t="n">
-        <v>0</v>
-      </c>
-      <c r="I891" t="inlineStr"/>
-      <c r="J891" t="inlineStr"/>
-      <c r="K891" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L891" t="n">
-        <v>1</v>
-      </c>
-      <c r="M891" t="inlineStr"/>
-    </row>
-    <row r="892">
-      <c r="A892" s="1" t="n">
-        <v>890</v>
-      </c>
-      <c r="B892" t="n">
-        <v>4073</v>
-      </c>
-      <c r="C892" t="n">
-        <v>4073</v>
-      </c>
-      <c r="D892" t="n">
-        <v>4073</v>
-      </c>
-      <c r="E892" t="n">
-        <v>4073</v>
-      </c>
-      <c r="F892" t="n">
-        <v>395.9961</v>
-      </c>
-      <c r="G892" t="n">
-        <v>-106007.3831226499</v>
-      </c>
-      <c r="H892" t="n">
-        <v>0</v>
-      </c>
-      <c r="I892" t="inlineStr"/>
-      <c r="J892" t="inlineStr"/>
-      <c r="K892" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L892" t="n">
-        <v>1</v>
-      </c>
-      <c r="M892" t="inlineStr"/>
-    </row>
-    <row r="893">
-      <c r="A893" s="1" t="n">
-        <v>891</v>
-      </c>
-      <c r="B893" t="n">
-        <v>4071</v>
-      </c>
-      <c r="C893" t="n">
-        <v>4065</v>
-      </c>
-      <c r="D893" t="n">
-        <v>4071</v>
-      </c>
-      <c r="E893" t="n">
-        <v>4065</v>
-      </c>
-      <c r="F893" t="n">
-        <v>9870.654699999999</v>
-      </c>
-      <c r="G893" t="n">
-        <v>-115878.0378226499</v>
-      </c>
-      <c r="H893" t="n">
-        <v>0</v>
-      </c>
-      <c r="I893" t="inlineStr"/>
-      <c r="J893" t="inlineStr"/>
-      <c r="K893" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L893" t="n">
-        <v>1</v>
-      </c>
-      <c r="M893" t="inlineStr"/>
-    </row>
-    <row r="894">
-      <c r="A894" s="1" t="n">
-        <v>892</v>
-      </c>
-      <c r="B894" t="n">
-        <v>4066</v>
-      </c>
-      <c r="C894" t="n">
-        <v>4066</v>
-      </c>
-      <c r="D894" t="n">
-        <v>4066</v>
-      </c>
-      <c r="E894" t="n">
-        <v>4066</v>
-      </c>
-      <c r="F894" t="n">
-        <v>7659.5663</v>
-      </c>
-      <c r="G894" t="n">
-        <v>-108218.4715226499</v>
-      </c>
-      <c r="H894" t="n">
-        <v>0</v>
-      </c>
-      <c r="I894" t="inlineStr"/>
-      <c r="J894" t="inlineStr"/>
-      <c r="K894" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L894" t="n">
-        <v>1</v>
-      </c>
-      <c r="M894" t="inlineStr"/>
-    </row>
-    <row r="895">
-      <c r="A895" s="1" t="n">
-        <v>893</v>
-      </c>
-      <c r="B895" t="n">
-        <v>4071</v>
-      </c>
-      <c r="C895" t="n">
-        <v>4079</v>
-      </c>
-      <c r="D895" t="n">
-        <v>4079</v>
-      </c>
-      <c r="E895" t="n">
-        <v>4071</v>
-      </c>
-      <c r="F895" t="n">
-        <v>1884.7914</v>
-      </c>
-      <c r="G895" t="n">
-        <v>-106333.6801226499</v>
-      </c>
-      <c r="H895" t="n">
-        <v>0</v>
-      </c>
-      <c r="I895" t="inlineStr"/>
-      <c r="J895" t="inlineStr"/>
-      <c r="K895" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L895" t="n">
-        <v>1</v>
-      </c>
-      <c r="M895" t="inlineStr"/>
-    </row>
-    <row r="896">
-      <c r="A896" s="1" t="n">
-        <v>894</v>
-      </c>
-      <c r="B896" t="n">
-        <v>4079</v>
-      </c>
-      <c r="C896" t="n">
-        <v>4079</v>
-      </c>
-      <c r="D896" t="n">
-        <v>4079</v>
-      </c>
-      <c r="E896" t="n">
-        <v>4079</v>
-      </c>
-      <c r="F896" t="n">
-        <v>2105.336</v>
-      </c>
-      <c r="G896" t="n">
-        <v>-106333.6801226499</v>
-      </c>
-      <c r="H896" t="n">
-        <v>0</v>
-      </c>
-      <c r="I896" t="inlineStr"/>
-      <c r="J896" t="inlineStr"/>
-      <c r="K896" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L896" t="n">
-        <v>1</v>
-      </c>
-      <c r="M896" t="inlineStr"/>
-    </row>
-    <row r="897">
-      <c r="A897" s="1" t="n">
-        <v>895</v>
-      </c>
-      <c r="B897" t="n">
-        <v>4075</v>
-      </c>
-      <c r="C897" t="n">
-        <v>4075</v>
-      </c>
-      <c r="D897" t="n">
-        <v>4079</v>
-      </c>
-      <c r="E897" t="n">
-        <v>4075</v>
-      </c>
-      <c r="F897" t="n">
-        <v>696.6784695</v>
-      </c>
-      <c r="G897" t="n">
-        <v>-107030.3585921499</v>
-      </c>
-      <c r="H897" t="n">
-        <v>0</v>
-      </c>
-      <c r="I897" t="inlineStr"/>
-      <c r="J897" t="inlineStr"/>
-      <c r="K897" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L897" t="n">
-        <v>1</v>
-      </c>
-      <c r="M897" t="inlineStr"/>
-    </row>
-    <row r="898">
-      <c r="A898" s="1" t="n">
-        <v>896</v>
-      </c>
-      <c r="B898" t="n">
-        <v>4077</v>
-      </c>
-      <c r="C898" t="n">
-        <v>4080</v>
-      </c>
-      <c r="D898" t="n">
-        <v>4080</v>
-      </c>
-      <c r="E898" t="n">
-        <v>4077</v>
-      </c>
-      <c r="F898" t="n">
-        <v>909.16813725</v>
-      </c>
-      <c r="G898" t="n">
-        <v>-106121.1904548999</v>
-      </c>
-      <c r="H898" t="n">
-        <v>0</v>
-      </c>
-      <c r="I898" t="inlineStr"/>
-      <c r="J898" t="inlineStr"/>
-      <c r="K898" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L898" t="n">
-        <v>1</v>
-      </c>
-      <c r="M898" t="inlineStr"/>
-    </row>
-    <row r="899">
-      <c r="A899" s="1" t="n">
-        <v>897</v>
-      </c>
-      <c r="B899" t="n">
-        <v>4080</v>
-      </c>
-      <c r="C899" t="n">
-        <v>4080</v>
-      </c>
-      <c r="D899" t="n">
-        <v>4080</v>
-      </c>
-      <c r="E899" t="n">
-        <v>4080</v>
-      </c>
-      <c r="F899" t="n">
-        <v>991.49298039</v>
-      </c>
-      <c r="G899" t="n">
-        <v>-106121.1904548999</v>
-      </c>
-      <c r="H899" t="n">
-        <v>0</v>
-      </c>
-      <c r="I899" t="inlineStr"/>
-      <c r="J899" t="inlineStr"/>
-      <c r="K899" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L899" t="n">
-        <v>1</v>
-      </c>
-      <c r="M899" t="inlineStr"/>
-    </row>
-    <row r="900">
-      <c r="A900" s="1" t="n">
-        <v>898</v>
-      </c>
-      <c r="B900" t="n">
-        <v>4077</v>
-      </c>
-      <c r="C900" t="n">
-        <v>4080</v>
-      </c>
-      <c r="D900" t="n">
-        <v>4080</v>
-      </c>
-      <c r="E900" t="n">
-        <v>4077</v>
-      </c>
-      <c r="F900" t="n">
-        <v>565.41070784</v>
-      </c>
-      <c r="G900" t="n">
-        <v>-106121.1904548999</v>
-      </c>
-      <c r="H900" t="n">
-        <v>0</v>
-      </c>
-      <c r="I900" t="inlineStr"/>
-      <c r="J900" t="inlineStr"/>
-      <c r="K900" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L900" t="n">
-        <v>1</v>
-      </c>
-      <c r="M900" t="inlineStr"/>
-    </row>
-    <row r="901">
-      <c r="A901" s="1" t="n">
-        <v>899</v>
-      </c>
-      <c r="B901" t="n">
-        <v>4075</v>
-      </c>
-      <c r="C901" t="n">
-        <v>4072</v>
-      </c>
-      <c r="D901" t="n">
-        <v>4077</v>
-      </c>
-      <c r="E901" t="n">
-        <v>4071</v>
-      </c>
-      <c r="F901" t="n">
-        <v>980.2877</v>
-      </c>
-      <c r="G901" t="n">
-        <v>-107101.4781548999</v>
-      </c>
-      <c r="H901" t="n">
-        <v>0</v>
-      </c>
-      <c r="I901" t="inlineStr"/>
-      <c r="J901" t="inlineStr"/>
-      <c r="K901" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L901" t="n">
-        <v>1</v>
-      </c>
-      <c r="M901" t="inlineStr"/>
-    </row>
-    <row r="902">
-      <c r="A902" s="1" t="n">
-        <v>900</v>
-      </c>
-      <c r="B902" t="n">
-        <v>4072</v>
-      </c>
-      <c r="C902" t="n">
-        <v>4071</v>
-      </c>
-      <c r="D902" t="n">
-        <v>4072</v>
-      </c>
-      <c r="E902" t="n">
-        <v>4071</v>
-      </c>
-      <c r="F902" t="n">
-        <v>390.36504557</v>
-      </c>
-      <c r="G902" t="n">
-        <v>-107491.8432004699</v>
-      </c>
-      <c r="H902" t="n">
-        <v>0</v>
-      </c>
-      <c r="I902" t="inlineStr"/>
-      <c r="J902" t="inlineStr"/>
-      <c r="K902" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L902" t="n">
-        <v>1</v>
-      </c>
-      <c r="M902" t="inlineStr"/>
-    </row>
-    <row r="903">
-      <c r="A903" s="1" t="n">
-        <v>901</v>
-      </c>
-      <c r="B903" t="n">
-        <v>4072</v>
-      </c>
-      <c r="C903" t="n">
-        <v>4068</v>
-      </c>
-      <c r="D903" t="n">
-        <v>4072</v>
-      </c>
-      <c r="E903" t="n">
-        <v>4068</v>
-      </c>
-      <c r="F903" t="n">
-        <v>3100.65973418</v>
-      </c>
-      <c r="G903" t="n">
-        <v>-110592.5029346499</v>
-      </c>
-      <c r="H903" t="n">
-        <v>0</v>
-      </c>
-      <c r="I903" t="inlineStr"/>
-      <c r="J903" t="inlineStr"/>
-      <c r="K903" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L903" t="n">
-        <v>1</v>
-      </c>
-      <c r="M903" t="inlineStr"/>
-    </row>
-    <row r="904">
-      <c r="A904" s="1" t="n">
-        <v>902</v>
-      </c>
-      <c r="B904" t="n">
-        <v>4072</v>
-      </c>
-      <c r="C904" t="n">
-        <v>4072</v>
-      </c>
-      <c r="D904" t="n">
-        <v>4072</v>
-      </c>
-      <c r="E904" t="n">
-        <v>4071</v>
-      </c>
-      <c r="F904" t="n">
-        <v>1441.43123458</v>
-      </c>
-      <c r="G904" t="n">
-        <v>-109151.0717000699</v>
-      </c>
-      <c r="H904" t="n">
-        <v>0</v>
-      </c>
-      <c r="I904" t="inlineStr"/>
-      <c r="J904" t="inlineStr"/>
-      <c r="K904" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L904" t="n">
-        <v>1</v>
-      </c>
-      <c r="M904" t="inlineStr"/>
-    </row>
-    <row r="905">
-      <c r="A905" s="1" t="n">
-        <v>903</v>
-      </c>
-      <c r="B905" t="n">
-        <v>4072</v>
-      </c>
-      <c r="C905" t="n">
-        <v>4068</v>
-      </c>
-      <c r="D905" t="n">
-        <v>4072</v>
-      </c>
-      <c r="E905" t="n">
-        <v>4068</v>
-      </c>
-      <c r="F905" t="n">
-        <v>2185.96267878</v>
-      </c>
-      <c r="G905" t="n">
-        <v>-111337.0343788499</v>
-      </c>
-      <c r="H905" t="n">
-        <v>0</v>
-      </c>
-      <c r="I905" t="inlineStr"/>
-      <c r="J905" t="inlineStr"/>
-      <c r="K905" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L905" t="n">
-        <v>1</v>
-      </c>
-      <c r="M905" t="inlineStr"/>
-    </row>
-    <row r="906">
-      <c r="A906" s="1" t="n">
-        <v>904</v>
-      </c>
-      <c r="B906" t="n">
-        <v>4068</v>
-      </c>
-      <c r="C906" t="n">
-        <v>4062</v>
-      </c>
-      <c r="D906" t="n">
-        <v>4068</v>
-      </c>
-      <c r="E906" t="n">
-        <v>4055</v>
-      </c>
-      <c r="F906" t="n">
-        <v>4643.35278249</v>
-      </c>
-      <c r="G906" t="n">
-        <v>-115980.3871613399</v>
-      </c>
-      <c r="H906" t="n">
-        <v>0</v>
-      </c>
-      <c r="I906" t="inlineStr"/>
-      <c r="J906" t="inlineStr"/>
-      <c r="K906" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L906" t="n">
-        <v>1</v>
-      </c>
-      <c r="M906" t="inlineStr"/>
-    </row>
-    <row r="907">
-      <c r="A907" s="1" t="n">
-        <v>905</v>
-      </c>
-      <c r="B907" t="n">
-        <v>4065</v>
-      </c>
-      <c r="C907" t="n">
-        <v>4058</v>
-      </c>
-      <c r="D907" t="n">
-        <v>4065</v>
-      </c>
-      <c r="E907" t="n">
-        <v>4058</v>
-      </c>
-      <c r="F907" t="n">
-        <v>520.7572</v>
-      </c>
-      <c r="G907" t="n">
-        <v>-116501.1443613399</v>
-      </c>
-      <c r="H907" t="n">
-        <v>0</v>
-      </c>
-      <c r="I907" t="inlineStr"/>
-      <c r="J907" t="inlineStr"/>
-      <c r="K907" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L907" t="n">
-        <v>1</v>
-      </c>
-      <c r="M907" t="inlineStr"/>
-    </row>
-    <row r="908">
-      <c r="A908" s="1" t="n">
-        <v>906</v>
-      </c>
-      <c r="B908" t="n">
-        <v>4058</v>
-      </c>
-      <c r="C908" t="n">
-        <v>4056</v>
-      </c>
-      <c r="D908" t="n">
-        <v>4058</v>
-      </c>
-      <c r="E908" t="n">
-        <v>4056</v>
-      </c>
-      <c r="F908" t="n">
-        <v>1316.7621</v>
-      </c>
-      <c r="G908" t="n">
-        <v>-117817.9064613399</v>
-      </c>
-      <c r="H908" t="n">
-        <v>0</v>
-      </c>
-      <c r="I908" t="inlineStr"/>
-      <c r="J908" t="inlineStr"/>
-      <c r="K908" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L908" t="n">
-        <v>1</v>
-      </c>
-      <c r="M908" t="inlineStr"/>
-    </row>
-    <row r="909">
-      <c r="A909" s="1" t="n">
-        <v>907</v>
-      </c>
-      <c r="B909" t="n">
-        <v>4056</v>
-      </c>
-      <c r="C909" t="n">
-        <v>4056</v>
-      </c>
-      <c r="D909" t="n">
-        <v>4056</v>
-      </c>
-      <c r="E909" t="n">
-        <v>4056</v>
-      </c>
-      <c r="F909" t="n">
-        <v>171.1639</v>
-      </c>
-      <c r="G909" t="n">
-        <v>-117817.9064613399</v>
-      </c>
-      <c r="H909" t="n">
-        <v>0</v>
-      </c>
-      <c r="I909" t="inlineStr"/>
-      <c r="J909" t="inlineStr"/>
-      <c r="K909" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L909" t="n">
-        <v>1</v>
-      </c>
-      <c r="M909" t="inlineStr"/>
-    </row>
-    <row r="910">
-      <c r="A910" s="1" t="n">
-        <v>908</v>
-      </c>
-      <c r="B910" t="n">
-        <v>4056</v>
-      </c>
-      <c r="C910" t="n">
-        <v>4055</v>
-      </c>
-      <c r="D910" t="n">
-        <v>4057</v>
-      </c>
-      <c r="E910" t="n">
-        <v>4055</v>
-      </c>
-      <c r="F910" t="n">
-        <v>4619.1795</v>
-      </c>
-      <c r="G910" t="n">
-        <v>-122437.0859613398</v>
-      </c>
-      <c r="H910" t="n">
-        <v>1</v>
-      </c>
-      <c r="I910" t="n">
-        <v>4056</v>
-      </c>
-      <c r="J910" t="inlineStr"/>
-      <c r="K910" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L910" t="n">
-        <v>1</v>
-      </c>
-      <c r="M910" t="inlineStr"/>
-    </row>
-    <row r="911">
-      <c r="A911" s="1" t="n">
-        <v>909</v>
-      </c>
-      <c r="B911" t="n">
-        <v>4064</v>
-      </c>
-      <c r="C911" t="n">
-        <v>4064</v>
-      </c>
-      <c r="D911" t="n">
-        <v>4064</v>
-      </c>
-      <c r="E911" t="n">
-        <v>4064</v>
-      </c>
-      <c r="F911" t="n">
-        <v>12.125</v>
-      </c>
-      <c r="G911" t="n">
-        <v>-122424.9609613398</v>
-      </c>
-      <c r="H911" t="n">
-        <v>1</v>
-      </c>
-      <c r="I911" t="n">
-        <v>4055</v>
-      </c>
-      <c r="J911" t="inlineStr"/>
-      <c r="K911" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L911" t="n">
-        <v>1</v>
-      </c>
-      <c r="M911" t="inlineStr"/>
-    </row>
-    <row r="912">
-      <c r="A912" s="1" t="n">
-        <v>910</v>
-      </c>
-      <c r="B912" t="n">
-        <v>4064</v>
-      </c>
-      <c r="C912" t="n">
-        <v>4050</v>
-      </c>
-      <c r="D912" t="n">
-        <v>4064</v>
-      </c>
-      <c r="E912" t="n">
-        <v>4050</v>
-      </c>
-      <c r="F912" t="n">
-        <v>5327.1985</v>
-      </c>
-      <c r="G912" t="n">
-        <v>-127752.1594613398</v>
-      </c>
-      <c r="H912" t="n">
-        <v>1</v>
-      </c>
-      <c r="I912" t="n">
-        <v>4064</v>
-      </c>
-      <c r="J912" t="inlineStr"/>
-      <c r="K912" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L912" t="n">
-        <v>1</v>
-      </c>
-      <c r="M912" t="inlineStr"/>
-    </row>
-    <row r="913">
-      <c r="A913" s="1" t="n">
-        <v>911</v>
-      </c>
-      <c r="B913" t="n">
-        <v>4045</v>
-      </c>
-      <c r="C913" t="n">
-        <v>4047</v>
-      </c>
-      <c r="D913" t="n">
-        <v>4047</v>
-      </c>
-      <c r="E913" t="n">
-        <v>4043</v>
-      </c>
-      <c r="F913" t="n">
-        <v>4032.965</v>
-      </c>
-      <c r="G913" t="n">
-        <v>-131785.1244613398</v>
-      </c>
-      <c r="H913" t="n">
-        <v>0</v>
-      </c>
-      <c r="I913" t="inlineStr"/>
-      <c r="J913" t="inlineStr"/>
-      <c r="K913" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L913" t="n">
-        <v>1</v>
-      </c>
-      <c r="M913" t="inlineStr"/>
-    </row>
-    <row r="914">
-      <c r="A914" s="1" t="n">
-        <v>912</v>
-      </c>
-      <c r="B914" t="n">
-        <v>4045</v>
-      </c>
-      <c r="C914" t="n">
-        <v>4045</v>
-      </c>
-      <c r="D914" t="n">
-        <v>4045</v>
-      </c>
-      <c r="E914" t="n">
-        <v>4041</v>
-      </c>
-      <c r="F914" t="n">
-        <v>2694.2258</v>
-      </c>
-      <c r="G914" t="n">
-        <v>-134479.3502613399</v>
-      </c>
-      <c r="H914" t="n">
-        <v>1</v>
-      </c>
-      <c r="I914" t="n">
-        <v>4047</v>
-      </c>
-      <c r="J914" t="inlineStr"/>
-      <c r="K914" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L914" t="n">
-        <v>1</v>
-      </c>
-      <c r="M914" t="inlineStr"/>
-    </row>
-    <row r="915">
-      <c r="A915" s="1" t="n">
-        <v>913</v>
-      </c>
-      <c r="B915" t="n">
-        <v>4046</v>
-      </c>
-      <c r="C915" t="n">
-        <v>4059</v>
-      </c>
-      <c r="D915" t="n">
-        <v>4059</v>
-      </c>
-      <c r="E915" t="n">
-        <v>4046</v>
-      </c>
-      <c r="F915" t="n">
-        <v>3804.2281</v>
-      </c>
-      <c r="G915" t="n">
-        <v>-130675.1221613399</v>
-      </c>
-      <c r="H915" t="n">
-        <v>1</v>
-      </c>
-      <c r="I915" t="n">
-        <v>4045</v>
-      </c>
-      <c r="J915" t="inlineStr"/>
-      <c r="K915" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L915" t="n">
-        <v>1</v>
-      </c>
-      <c r="M915" t="inlineStr"/>
-    </row>
-    <row r="916">
-      <c r="A916" s="1" t="n">
-        <v>914</v>
-      </c>
-      <c r="B916" t="n">
-        <v>4063</v>
-      </c>
-      <c r="C916" t="n">
-        <v>4063</v>
-      </c>
-      <c r="D916" t="n">
-        <v>4063</v>
-      </c>
-      <c r="E916" t="n">
-        <v>4063</v>
-      </c>
-      <c r="F916" t="n">
-        <v>207.5432</v>
-      </c>
-      <c r="G916" t="n">
-        <v>-130467.5789613399</v>
-      </c>
-      <c r="H916" t="n">
-        <v>1</v>
-      </c>
-      <c r="I916" t="n">
-        <v>4059</v>
-      </c>
-      <c r="J916" t="inlineStr"/>
-      <c r="K916" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L916" t="n">
-        <v>1</v>
-      </c>
-      <c r="M916" t="inlineStr"/>
-    </row>
-    <row r="917">
-      <c r="A917" s="1" t="n">
-        <v>915</v>
-      </c>
-      <c r="B917" t="n">
-        <v>4055</v>
-      </c>
-      <c r="C917" t="n">
-        <v>4055</v>
-      </c>
-      <c r="D917" t="n">
-        <v>4055</v>
-      </c>
-      <c r="E917" t="n">
-        <v>4055</v>
-      </c>
-      <c r="F917" t="n">
-        <v>64.0274</v>
-      </c>
-      <c r="G917" t="n">
-        <v>-130531.6063613399</v>
-      </c>
-      <c r="H917" t="n">
-        <v>1</v>
-      </c>
-      <c r="I917" t="n">
-        <v>4063</v>
-      </c>
-      <c r="J917" t="inlineStr"/>
-      <c r="K917" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L917" t="n">
-        <v>1</v>
-      </c>
-      <c r="M917" t="inlineStr"/>
-    </row>
-    <row r="918">
-      <c r="A918" s="1" t="n">
-        <v>916</v>
-      </c>
-      <c r="B918" t="n">
-        <v>4064</v>
-      </c>
-      <c r="C918" t="n">
-        <v>4065</v>
-      </c>
-      <c r="D918" t="n">
-        <v>4065</v>
-      </c>
-      <c r="E918" t="n">
-        <v>4060</v>
-      </c>
-      <c r="F918" t="n">
-        <v>141.3381</v>
-      </c>
-      <c r="G918" t="n">
-        <v>-130390.2682613399</v>
-      </c>
-      <c r="H918" t="n">
-        <v>1</v>
-      </c>
-      <c r="I918" t="n">
-        <v>4055</v>
-      </c>
-      <c r="J918" t="inlineStr"/>
-      <c r="K918" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L918" t="n">
-        <v>1</v>
-      </c>
-      <c r="M918" t="inlineStr"/>
-    </row>
-    <row r="919">
-      <c r="A919" s="1" t="n">
-        <v>917</v>
-      </c>
-      <c r="B919" t="n">
-        <v>4060</v>
-      </c>
-      <c r="C919" t="n">
-        <v>4056</v>
-      </c>
-      <c r="D919" t="n">
-        <v>4060</v>
-      </c>
-      <c r="E919" t="n">
-        <v>4055</v>
-      </c>
-      <c r="F919" t="n">
-        <v>2260.9339</v>
-      </c>
-      <c r="G919" t="n">
-        <v>-132651.2021613399</v>
-      </c>
-      <c r="H919" t="n">
-        <v>1</v>
-      </c>
-      <c r="I919" t="n">
-        <v>4065</v>
-      </c>
-      <c r="J919" t="inlineStr"/>
-      <c r="K919" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L919" t="n">
-        <v>1</v>
-      </c>
-      <c r="M919" t="inlineStr"/>
-    </row>
-    <row r="920">
-      <c r="A920" s="1" t="n">
-        <v>918</v>
-      </c>
-      <c r="B920" t="n">
-        <v>4054</v>
-      </c>
-      <c r="C920" t="n">
-        <v>4051</v>
-      </c>
-      <c r="D920" t="n">
-        <v>4054</v>
-      </c>
-      <c r="E920" t="n">
-        <v>4051</v>
-      </c>
-      <c r="F920" t="n">
-        <v>795.1354</v>
-      </c>
-      <c r="G920" t="n">
-        <v>-133446.3375613399</v>
-      </c>
-      <c r="H920" t="n">
-        <v>0</v>
-      </c>
-      <c r="I920" t="inlineStr"/>
-      <c r="J920" t="inlineStr"/>
-      <c r="K920" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L920" t="n">
-        <v>1</v>
-      </c>
-      <c r="M920" t="inlineStr"/>
-    </row>
-    <row r="921">
-      <c r="A921" s="1" t="n">
-        <v>919</v>
-      </c>
-      <c r="B921" t="n">
-        <v>4054</v>
-      </c>
-      <c r="C921" t="n">
-        <v>4051</v>
-      </c>
-      <c r="D921" t="n">
-        <v>4054</v>
-      </c>
-      <c r="E921" t="n">
-        <v>4051</v>
-      </c>
-      <c r="F921" t="n">
-        <v>1145.359</v>
-      </c>
-      <c r="G921" t="n">
-        <v>-133446.3375613399</v>
-      </c>
-      <c r="H921" t="n">
-        <v>1</v>
-      </c>
-      <c r="I921" t="n">
-        <v>4051</v>
-      </c>
-      <c r="J921" t="inlineStr"/>
-      <c r="K921" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L921" t="n">
-        <v>1</v>
-      </c>
-      <c r="M921" t="inlineStr"/>
-    </row>
-    <row r="922">
-      <c r="A922" s="1" t="n">
-        <v>920</v>
-      </c>
-      <c r="B922" t="n">
-        <v>4051</v>
-      </c>
-      <c r="C922" t="n">
-        <v>4037</v>
-      </c>
-      <c r="D922" t="n">
-        <v>4051</v>
-      </c>
-      <c r="E922" t="n">
-        <v>4037</v>
-      </c>
-      <c r="F922" t="n">
-        <v>4224.5639</v>
-      </c>
-      <c r="G922" t="n">
-        <v>-137670.9014613399</v>
-      </c>
-      <c r="H922" t="n">
-        <v>1</v>
-      </c>
-      <c r="I922" t="n">
-        <v>4051</v>
-      </c>
-      <c r="J922" t="inlineStr"/>
-      <c r="K922" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L922" t="n">
-        <v>1</v>
-      </c>
-      <c r="M922" t="inlineStr"/>
-    </row>
-    <row r="923">
-      <c r="A923" s="1" t="n">
-        <v>921</v>
-      </c>
-      <c r="B923" t="n">
-        <v>4040</v>
-      </c>
-      <c r="C923" t="n">
-        <v>4039</v>
-      </c>
-      <c r="D923" t="n">
-        <v>4040</v>
-      </c>
-      <c r="E923" t="n">
-        <v>4039</v>
-      </c>
-      <c r="F923" t="n">
-        <v>5611.774</v>
-      </c>
-      <c r="G923" t="n">
-        <v>-132059.1274613399</v>
-      </c>
-      <c r="H923" t="n">
-        <v>1</v>
-      </c>
-      <c r="I923" t="n">
-        <v>4037</v>
-      </c>
-      <c r="J923" t="inlineStr"/>
-      <c r="K923" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L923" t="n">
-        <v>1</v>
-      </c>
-      <c r="M923" t="inlineStr"/>
-    </row>
-    <row r="924">
-      <c r="A924" s="1" t="n">
-        <v>922</v>
-      </c>
-      <c r="B924" t="n">
-        <v>4039</v>
-      </c>
-      <c r="C924" t="n">
-        <v>4039</v>
-      </c>
-      <c r="D924" t="n">
-        <v>4039</v>
-      </c>
-      <c r="E924" t="n">
-        <v>4039</v>
-      </c>
-      <c r="F924" t="n">
-        <v>140.4223</v>
-      </c>
-      <c r="G924" t="n">
-        <v>-132059.1274613399</v>
-      </c>
-      <c r="H924" t="n">
-        <v>1</v>
-      </c>
-      <c r="I924" t="n">
-        <v>4039</v>
-      </c>
-      <c r="J924" t="inlineStr"/>
-      <c r="K924" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L924" t="n">
-        <v>1</v>
-      </c>
-      <c r="M924" t="inlineStr"/>
-    </row>
-    <row r="925">
-      <c r="A925" s="1" t="n">
-        <v>923</v>
-      </c>
-      <c r="B925" t="n">
-        <v>4043</v>
-      </c>
-      <c r="C925" t="n">
-        <v>4043</v>
-      </c>
-      <c r="D925" t="n">
-        <v>4043</v>
-      </c>
-      <c r="E925" t="n">
-        <v>4043</v>
-      </c>
-      <c r="F925" t="n">
-        <v>135.3974</v>
-      </c>
-      <c r="G925" t="n">
-        <v>-131923.7300613399</v>
-      </c>
-      <c r="H925" t="n">
-        <v>1</v>
-      </c>
-      <c r="I925" t="n">
-        <v>4039</v>
-      </c>
-      <c r="J925" t="inlineStr"/>
-      <c r="K925" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L925" t="n">
-        <v>1</v>
-      </c>
-      <c r="M925" t="inlineStr"/>
-    </row>
-    <row r="926">
-      <c r="A926" s="1" t="n">
-        <v>924</v>
-      </c>
-      <c r="B926" t="n">
-        <v>4043</v>
-      </c>
-      <c r="C926" t="n">
-        <v>4043</v>
-      </c>
-      <c r="D926" t="n">
-        <v>4043</v>
-      </c>
-      <c r="E926" t="n">
-        <v>4043</v>
-      </c>
-      <c r="F926" t="n">
-        <v>19.0035</v>
-      </c>
-      <c r="G926" t="n">
-        <v>-131923.7300613399</v>
-      </c>
-      <c r="H926" t="n">
-        <v>1</v>
-      </c>
-      <c r="I926" t="n">
-        <v>4043</v>
-      </c>
-      <c r="J926" t="inlineStr"/>
-      <c r="K926" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L926" t="n">
-        <v>1</v>
-      </c>
-      <c r="M926" t="inlineStr"/>
-    </row>
-    <row r="927">
-      <c r="A927" s="1" t="n">
-        <v>925</v>
-      </c>
-      <c r="B927" t="n">
-        <v>4045</v>
-      </c>
-      <c r="C927" t="n">
-        <v>4045</v>
-      </c>
-      <c r="D927" t="n">
-        <v>4045</v>
-      </c>
-      <c r="E927" t="n">
-        <v>4045</v>
-      </c>
-      <c r="F927" t="n">
-        <v>74.3749</v>
-      </c>
-      <c r="G927" t="n">
-        <v>-131849.3551613399</v>
-      </c>
-      <c r="H927" t="n">
-        <v>1</v>
-      </c>
-      <c r="I927" t="n">
-        <v>4043</v>
-      </c>
-      <c r="J927" t="inlineStr"/>
-      <c r="K927" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L927" t="n">
-        <v>1</v>
-      </c>
-      <c r="M927" t="inlineStr"/>
-    </row>
-    <row r="928">
-      <c r="A928" s="1" t="n">
-        <v>926</v>
-      </c>
-      <c r="B928" t="n">
-        <v>4043</v>
-      </c>
-      <c r="C928" t="n">
-        <v>4043</v>
-      </c>
-      <c r="D928" t="n">
-        <v>4043</v>
-      </c>
-      <c r="E928" t="n">
-        <v>4043</v>
-      </c>
-      <c r="F928" t="n">
-        <v>204.9414</v>
-      </c>
-      <c r="G928" t="n">
-        <v>-132054.2965613399</v>
-      </c>
-      <c r="H928" t="n">
-        <v>1</v>
-      </c>
-      <c r="I928" t="n">
-        <v>4045</v>
-      </c>
-      <c r="J928" t="inlineStr"/>
-      <c r="K928" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L928" t="n">
-        <v>1</v>
-      </c>
-      <c r="M928" t="inlineStr"/>
-    </row>
-    <row r="929">
-      <c r="A929" s="1" t="n">
-        <v>927</v>
-      </c>
-      <c r="B929" t="n">
-        <v>4045</v>
-      </c>
-      <c r="C929" t="n">
-        <v>4053</v>
-      </c>
-      <c r="D929" t="n">
-        <v>4062</v>
-      </c>
-      <c r="E929" t="n">
-        <v>4043</v>
-      </c>
-      <c r="F929" t="n">
-        <v>9580.177299999999</v>
-      </c>
-      <c r="G929" t="n">
-        <v>-122474.1192613399</v>
-      </c>
-      <c r="H929" t="n">
-        <v>1</v>
-      </c>
-      <c r="I929" t="n">
-        <v>4043</v>
-      </c>
-      <c r="J929" t="inlineStr"/>
-      <c r="K929" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L929" t="n">
         <v>1</v>
       </c>
@@ -31380,7 +31112,9 @@
       <c r="I930" t="n">
         <v>4053</v>
       </c>
-      <c r="J930" t="inlineStr"/>
+      <c r="J930" t="n">
+        <v>4045</v>
+      </c>
       <c r="K930" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31414,10 +31148,14 @@
         <v>-120673.4387613399</v>
       </c>
       <c r="H931" t="n">
-        <v>0</v>
-      </c>
-      <c r="I931" t="inlineStr"/>
-      <c r="J931" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I931" t="n">
+        <v>4060</v>
+      </c>
+      <c r="J931" t="n">
+        <v>4045</v>
+      </c>
       <c r="K931" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31451,10 +31189,14 @@
         <v>-120673.4387613399</v>
       </c>
       <c r="H932" t="n">
-        <v>0</v>
-      </c>
-      <c r="I932" t="inlineStr"/>
-      <c r="J932" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I932" t="n">
+        <v>4059</v>
+      </c>
+      <c r="J932" t="n">
+        <v>4045</v>
+      </c>
       <c r="K932" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31488,10 +31230,14 @@
         <v>-122193.9029613399</v>
       </c>
       <c r="H933" t="n">
-        <v>0</v>
-      </c>
-      <c r="I933" t="inlineStr"/>
-      <c r="J933" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I933" t="n">
+        <v>4059</v>
+      </c>
+      <c r="J933" t="n">
+        <v>4045</v>
+      </c>
       <c r="K933" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -31525,10 +31271,14 @@
         <v>-121724.5135613399</v>
       </c>
       <c r="H934" t="n">
-        <v>0</v>
-      </c>
-      <c r="I934" t="inlineStr"/>
-      <c r="J934" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I934" t="n">
+        <v>4053</v>
+      </c>
+      <c r="J934" t="n">
+        <v>4045</v>
+      </c>
       <c r="K934" t="inlineStr">
         <is>
           <t>매도 대기</t>
